--- a/doc/GPU database.xlsx
+++ b/doc/GPU database.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="112" uniqueCount="39">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="203" uniqueCount="72">
   <si>
     <t>PS4 bandwidth</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>GeForce GTX 285</t>
-  </si>
-  <si>
-    <t>GeForce GTX 250</t>
   </si>
   <si>
     <t>GFLOPS</t>
@@ -146,13 +143,115 @@
   <si>
     <t>GeForce Extreme</t>
   </si>
+  <si>
+    <t>Intel volumn</t>
+  </si>
+  <si>
+    <t>HD Graphics 520</t>
+  </si>
+  <si>
+    <t>HD Graphics 5500</t>
+  </si>
+  <si>
+    <t>HD Graphics 4600</t>
+  </si>
+  <si>
+    <t>HD Graphics 4000</t>
+  </si>
+  <si>
+    <t>HD Graphics 3000</t>
+  </si>
+  <si>
+    <t>HD Graphics 2000</t>
+  </si>
+  <si>
+    <t>GMA X4500</t>
+  </si>
+  <si>
+    <t>GMA X3100</t>
+  </si>
+  <si>
+    <t>GMA 950</t>
+  </si>
+  <si>
+    <t>HD Graphics 620</t>
+  </si>
+  <si>
+    <t>GeForce 9500 GT</t>
+  </si>
+  <si>
+    <t>GeForce GTS 450</t>
+  </si>
+  <si>
+    <t>GeForce GT 240</t>
+  </si>
+  <si>
+    <t>GeForce GTX 550 Ti</t>
+  </si>
+  <si>
+    <t>GeForce GTX 650</t>
+  </si>
+  <si>
+    <t>GeForce GTX 750</t>
+  </si>
+  <si>
+    <t>GeForce GTX 950</t>
+  </si>
+  <si>
+    <t>GeForce GTX 1050</t>
+  </si>
+  <si>
+    <t>GeForce 9600 GT</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>High-end</t>
+  </si>
+  <si>
+    <t>GeForce 8</t>
+  </si>
+  <si>
+    <t>GeForce 200</t>
+  </si>
+  <si>
+    <t>GeForce 900</t>
+  </si>
+  <si>
+    <t>GeForce GTX 960</t>
+  </si>
+  <si>
+    <t>GeForce GTX 660</t>
+  </si>
+  <si>
+    <t>GeForce 600</t>
+  </si>
+  <si>
+    <t>GeForce 400</t>
+  </si>
+  <si>
+    <t>GeForce GTX 450</t>
+  </si>
+  <si>
+    <t>GeForce GTX 460</t>
+  </si>
+  <si>
+    <t>GeForce 1000</t>
+  </si>
+  <si>
+    <t>GeForce GTX 1060</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -200,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -940,11 +1039,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1398775056"/>
-        <c:axId val="1398773968"/>
+        <c:axId val="-1235428976"/>
+        <c:axId val="-1235437136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1398775056"/>
+        <c:axId val="-1235428976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42600"/>
@@ -984,7 +1083,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1003,13 +1102,13 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1398773968"/>
+        <c:crossAx val="-1235437136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1398773968"/>
+        <c:axId val="-1235437136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -1067,7 +1166,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1398775056"/>
+        <c:crossAx val="-1235428976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1937,11 +2036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1450821744"/>
-        <c:axId val="1398771248"/>
+        <c:axId val="-1235432240"/>
+        <c:axId val="-1235437680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1450821744"/>
+        <c:axId val="-1235432240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42600"/>
@@ -1981,7 +2080,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2000,13 +2099,13 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1398771248"/>
+        <c:crossAx val="-1235437680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1398771248"/>
+        <c:axId val="-1235437680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,7 +2162,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1450821744"/>
+        <c:crossAx val="-1235432240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2159,6 +2258,47 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100%"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" baseline="0%">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Evolution of Intel HD Graphics volume GPU performance over 8 years, relative to GMA 4500</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2172,13 +2312,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100%"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65%"/>
                   <a:lumOff val="35%"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2191,219 +2345,219 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10978937007874016"/>
+          <c:y val="0.16808543096872616"/>
+          <c:w val="0.84722462817147848"/>
+          <c:h val="0.5998066031219782"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>graft!$E$14</c:f>
+              <c:f>data!$L$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GeForce  High-end</c:v>
+                  <c:v>Bandwidth</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>graft!$F$14:$P$14</c:f>
+              <c:f>data!$K$72:$K$78</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>86.4</c:v>
+                  <c:v>39604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103.7</c:v>
+                  <c:v>40185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141.69999999999999</c:v>
+                  <c:v>40552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>159</c:v>
+                  <c:v>41022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192.4</c:v>
+                  <c:v>41427</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192.4</c:v>
+                  <c:v>42009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>192.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>480</c:v>
+                  <c:v>42221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$L$72:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2529411764705882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0058823529411764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>graft!$E$15</c:f>
+              <c:f>data!$M$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GeForce *50 Series</c:v>
+                  <c:v>GFLOPS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>graft!$F$15:$P$15</c:f>
+              <c:f>data!$K$72:$K$78</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12.8</c:v>
+                  <c:v>39604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.8</c:v>
+                  <c:v>40185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.6</c:v>
+                  <c:v>40552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.6</c:v>
+                  <c:v>41022</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.73</c:v>
+                  <c:v>41427</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.5</c:v>
+                  <c:v>42009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>86.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>86.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>112</c:v>
+                  <c:v>42221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>graft!$E$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$M$72:$M$78</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Intel volume</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>graft!$F$16:$P$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>12.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.8</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.3</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.3</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34.1</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2413,17 +2567,33 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1211302192"/>
-        <c:axId val="1211302736"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1211302192"/>
+        <c:axId val="-1206852720"/>
+        <c:axId val="-1275730064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1206852720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="42300"/>
+          <c:min val="39550"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-409]d\-mmm\-yyyy;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2432,8 +2602,72 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15%"/>
-                <a:lumOff val="85%"/>
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1275730064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="250"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1275730064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2460,68 +2694,9 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1211302736"/>
+        <c:crossAx val="-1206852720"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1211302736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1211302192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2620,8 +2795,689 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100%"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="0" i="0" baseline="0%">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Evolution of entry level GeForce performance over 10 years, relative to GeForce 8500 GT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100%"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10262685930001668"/>
+          <c:y val="0.24532488042849035"/>
+          <c:w val="0.80526030200233567"/>
+          <c:h val="0.53176752263568772"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$L$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bandwidth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$K$48:$K$55</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$L$48:$L$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9327731092436975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6890756302521006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8512605042016803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2773109243697469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7226890756302522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7394957983193278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9075630252100844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$M$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memory (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$K$48:$K$55</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$M$48:$M$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$N$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GFLOPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$K$48:$K$55</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$N$48:$N$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.399305555555554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.878472222222221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.211805555555554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.583333333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$O$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pixel (GP/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$K$48:$K$55</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$O$48:$O$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9611111111111104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3888888888888875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.166666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$P$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Texture (GT/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$K$48:$K$55</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$P$48:$P$55</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9611111111111104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3888888888888875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.666666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1434882432"/>
+        <c:axId val="-1434868832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1434882432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42250"/>
+          <c:min val="39125"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-409]d\-mmm\-yyyy;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65%"/>
@@ -2633,14 +3489,168 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>10 years of GPU memory bandwidth. Y-axis in GB/s</a:t>
-            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
-        </c:rich>
-      </c:tx>
+        </c:txPr>
+        <c:crossAx val="-1434868832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="250"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1434868832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1434882432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2693,6 +3703,485 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>graft!$F$14:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graft!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *50 Series</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>graft!$F$15:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graft!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel volume</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>graft!$F$16:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1235431696"/>
+        <c:axId val="-1235426800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1235431696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1235426800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1235426800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1235431696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>10 years of GPU memory bandwidth. Y-axis in GB/s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graft!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce  High-end</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
@@ -3251,11 +4740,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1211301648"/>
-        <c:axId val="1271034240"/>
+        <c:axId val="-1235427888"/>
+        <c:axId val="-1235440944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1211301648"/>
+        <c:axId val="-1235427888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3298,7 +4787,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1271034240"/>
+        <c:crossAx val="-1235440944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3306,7 +4795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1271034240"/>
+        <c:axId val="-1235440944"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3360,7 +4849,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1211301648"/>
+        <c:crossAx val="-1235427888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3374,7 +4863,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3601,6 +5089,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
   <cs:axisTitle>
@@ -4634,6 +6202,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5149,7 +7749,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5670,13 +8270,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
@@ -5699,16 +8299,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>385761</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5722,6 +8322,66 @@
       <a:graphic>
         <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
           <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6058,10 +8718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P57"/>
+  <dimension ref="B1:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB53" sqref="AB53"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E126" sqref="C126:E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6077,14 +8737,14 @@
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="d">
         <v>2013-02-19</v>
@@ -6107,7 +8767,7 @@
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="d">
         <v>2014-02-18</v>
@@ -6130,7 +8790,7 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="d">
         <v>2015-03-17</v>
@@ -6153,7 +8813,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -6162,19 +8822,19 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -6183,21 +8843,21 @@
         <v>12</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" t="s">
         <v>17</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>18</v>
-      </c>
-      <c r="P7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="d">
         <v>2006-11-08</v>
@@ -6218,7 +8878,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="3" t="d">
         <v>2006-11-08</v>
@@ -6241,7 +8901,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="d">
         <v>2007-06-02</v>
@@ -6262,7 +8922,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="3" t="d">
         <v>2007-06-02</v>
@@ -6276,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="6">
-        <f t="shared" ref="M9:P9" si="0">F9/F$8</f>
+        <f t="shared" ref="N9:P9" si="0">F9/F$8</f>
         <v>1.111969111969112</v>
       </c>
       <c r="O9" s="6">
@@ -6388,7 +9048,7 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="d">
         <v>2010-03-26</v>
@@ -6409,7 +9069,7 @@
         <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="3" t="d">
         <v>2010-03-26</v>
@@ -6437,7 +9097,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="d">
         <v>2010-11-09</v>
@@ -6458,7 +9118,7 @@
         <v>49.41</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="3" t="d">
         <v>2010-11-09</v>
@@ -6486,7 +9146,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="d">
         <v>2012-03-22</v>
@@ -6507,7 +9167,7 @@
         <v>128.80000000000001</v>
       </c>
       <c r="J14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="3" t="d">
         <v>2012-03-22</v>
@@ -6535,7 +9195,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="d">
         <v>2013-05-23</v>
@@ -6556,7 +9216,7 @@
         <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="3" t="d">
         <v>2013-05-23</v>
@@ -6584,7 +9244,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="d">
         <v>2014-02-18</v>
@@ -6605,7 +9265,7 @@
         <v>213</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16" s="3" t="d">
         <v>2014-02-18</v>
@@ -6633,7 +9293,7 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="d">
         <v>2015-03-17</v>
@@ -6654,7 +9314,7 @@
         <v>192</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="3" t="d">
         <v>2015-03-17</v>
@@ -6682,7 +9342,7 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="d">
         <v>2016-08-02</v>
@@ -6703,7 +9363,7 @@
         <v>317.39999999999998</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="3" t="d">
         <v>2016-08-02</v>
@@ -6740,19 +9400,19 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20" t="s">
         <v>11</v>
@@ -6761,21 +9421,21 @@
         <v>12</v>
       </c>
       <c r="M20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" t="s">
         <v>17</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>18</v>
-      </c>
-      <c r="P20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3" t="d">
         <v>2006-11-08</v>
@@ -6796,7 +9456,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" s="3" t="d">
         <v>2006-11-08</v>
@@ -6819,7 +9479,7 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3" t="d">
         <v>2007-06-02</v>
@@ -6840,7 +9500,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K22" s="3" t="d">
         <v>2007-06-02</v>
@@ -6966,7 +9626,7 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="3" t="d">
         <v>2010-03-26</v>
@@ -6987,7 +9647,7 @@
         <v>42</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K25" s="3" t="d">
         <v>2010-03-26</v>
@@ -7015,7 +9675,7 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3" t="d">
         <v>2010-11-09</v>
@@ -7036,7 +9696,7 @@
         <v>49.41</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K26" s="3" t="d">
         <v>2010-11-09</v>
@@ -7064,7 +9724,7 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="3" t="d">
         <v>2012-03-22</v>
@@ -7085,7 +9745,7 @@
         <v>128.80000000000001</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K27" s="3" t="d">
         <v>2012-03-22</v>
@@ -7113,7 +9773,7 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="3" t="d">
         <v>2013-05-23</v>
@@ -7134,7 +9794,7 @@
         <v>166</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K28" s="3" t="d">
         <v>2013-05-23</v>
@@ -7162,7 +9822,7 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="3" t="d">
         <v>2013-11-07</v>
@@ -7184,7 +9844,7 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K29" s="3" t="d">
         <v>2013-11-07</v>
@@ -7212,7 +9872,7 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="3" t="d">
         <v>2014-09-18</v>
@@ -7233,7 +9893,7 @@
         <v>144</v>
       </c>
       <c r="J30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K30" s="3" t="d">
         <v>2014-09-18</v>
@@ -7261,7 +9921,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="3" t="d">
         <v>2015-06-02</v>
@@ -7282,7 +9942,7 @@
         <v>176</v>
       </c>
       <c r="J31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K31" s="3" t="d">
         <v>2015-06-02</v>
@@ -7310,7 +9970,7 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="3" t="d">
         <v>2016-05-27</v>
@@ -7331,7 +9991,7 @@
         <v>257.10000000000002</v>
       </c>
       <c r="J32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K32" s="3" t="d">
         <v>2016-05-27</v>
@@ -7357,25 +10017,25 @@
         <v>6.9864130434782616</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>2</v>
       </c>
@@ -7386,33 +10046,33 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
         <v>17</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>18</v>
       </c>
-      <c r="H38" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="3" t="d">
         <v>2007-04-17</v>
       </c>
       <c r="D39" s="5">
-        <v>22.4</v>
+        <v>20.9</v>
       </c>
       <c r="E39">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="F39" s="5">
-        <v>114.2</v>
+        <v>75.5</v>
       </c>
       <c r="G39" s="5">
         <v>4.3</v>
@@ -7421,200 +10081,1526 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="3" t="d">
+        <v>57</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="5">
+        <v>53.6</v>
+      </c>
+      <c r="E40">
+        <v>512</v>
+      </c>
+      <c r="F40" s="5">
+        <v>208</v>
+      </c>
+      <c r="G40" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="H40" s="5">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="3" t="d">
         <v>2008-06-16</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D41" s="5">
         <v>111.9</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>896</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F41" s="5">
         <v>715.39200000000005</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G41" s="5">
         <v>16.128</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H41" s="5">
         <v>36.863999999999997</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C41" s="3"/>
-      <c r="D41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="3" t="d">
+        <v>2010-07-12</v>
+      </c>
+      <c r="D42" s="5">
+        <v>115.2</v>
+      </c>
+      <c r="E42">
+        <v>1024</v>
+      </c>
+      <c r="F42" s="5">
+        <v>907.2</v>
+      </c>
+      <c r="G42" s="5">
+        <v>21.6</v>
+      </c>
+      <c r="H42" s="5">
+        <v>37.799999999999997</v>
+      </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="3"/>
-      <c r="D42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="3" t="d">
+        <v>2012-09-13</v>
+      </c>
+      <c r="D43" s="5">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="E43">
+        <v>1536</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1881.6</v>
+      </c>
+      <c r="G43" s="5">
+        <v>23.5</v>
+      </c>
+      <c r="H43" s="5">
+        <v>78.5</v>
+      </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
-      <c r="D43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="3" t="d">
+        <v>2015-01-22</v>
+      </c>
+      <c r="D44" s="5">
+        <v>112</v>
+      </c>
+      <c r="E44">
+        <v>2048</v>
+      </c>
+      <c r="F44" s="5">
+        <v>2308</v>
+      </c>
+      <c r="G44" s="5">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="H44" s="5">
+        <v>72.099999999999994</v>
+      </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C44" s="3"/>
-      <c r="H44" s="3"/>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="3" t="d">
+        <v>2016-07-19</v>
+      </c>
+      <c r="D45" s="5">
+        <v>192</v>
+      </c>
+      <c r="E45">
+        <v>6144</v>
+      </c>
+      <c r="F45" s="5">
+        <v>3855</v>
+      </c>
+      <c r="G45" s="5">
+        <v>72.3</v>
+      </c>
+      <c r="H45" s="5">
+        <v>120.5</v>
+      </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>11</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>12</v>
       </c>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
         <v>17</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H47" t="s">
         <v>18</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" t="s">
         <v>19</v>
       </c>
+      <c r="N47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="3" t="d">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="3" t="d">
         <v>2007-04-17</v>
       </c>
-      <c r="D46">
-        <v>12.8</v>
-      </c>
-      <c r="E46">
+      <c r="D48">
+        <v>11.9</v>
+      </c>
+      <c r="E48">
+        <v>256</v>
+      </c>
+      <c r="F48" s="5">
+        <v>28.8</v>
+      </c>
+      <c r="G48" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="H48" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="J48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="3" t="d">
+        <v>2007-04-17</v>
+      </c>
+      <c r="L48" s="6">
+        <v>1</v>
+      </c>
+      <c r="M48" s="6">
+        <v>1</v>
+      </c>
+      <c r="N48" s="6">
+        <v>1</v>
+      </c>
+      <c r="O48" s="6">
+        <v>1</v>
+      </c>
+      <c r="P48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="3" t="d">
+        <v>2008-07-29</v>
+      </c>
+      <c r="D49">
+        <v>23</v>
+      </c>
+      <c r="E49">
         <v>512</v>
       </c>
-      <c r="F46" s="5">
-        <v>43.2</v>
-      </c>
-      <c r="G46" s="5">
-        <v>3.6</v>
-      </c>
-      <c r="H46" s="5">
-        <v>3.6</v>
+      <c r="F49" s="5">
+        <v>134.4</v>
+      </c>
+      <c r="G49" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H49" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J49" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" s="3" t="d">
+        <v>2008-07-29</v>
+      </c>
+      <c r="L49" s="6">
+        <f>D49/D$48</f>
+        <v>1.9327731092436975</v>
+      </c>
+      <c r="M49" s="6">
+        <f t="shared" ref="M49:P49" si="13">E49/E$48</f>
+        <v>2</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" si="13"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="O49" s="6">
+        <f t="shared" si="13"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="P49" s="6">
+        <f t="shared" si="13"/>
+        <v>2.4444444444444446</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="3" t="d">
-        <v>2009-03-03</v>
-      </c>
-      <c r="D47">
-        <v>64</v>
-      </c>
-      <c r="E47" s="1">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="3" t="d">
+        <v>2009-11-17</v>
+      </c>
+      <c r="D50">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1">
         <v>512</v>
       </c>
-      <c r="F47" s="5">
-        <v>705.024</v>
-      </c>
-      <c r="G47" s="5">
-        <v>11.808</v>
-      </c>
-      <c r="H47" s="5">
-        <v>47.231999999999999</v>
+      <c r="F50" s="5">
+        <v>385.9</v>
+      </c>
+      <c r="G50" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H50" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K50" s="3" t="d">
+        <v>2009-11-17</v>
+      </c>
+      <c r="L50" s="6">
+        <f t="shared" ref="L50:L55" si="14">D50/D$48</f>
+        <v>2.6890756302521006</v>
+      </c>
+      <c r="M50" s="6">
+        <f t="shared" ref="M50:M55" si="15">E50/E$48</f>
+        <v>2</v>
+      </c>
+      <c r="N50" s="6">
+        <f t="shared" ref="N50:N55" si="16">F50/F$48</f>
+        <v>13.399305555555554</v>
+      </c>
+      <c r="O50" s="6">
+        <f t="shared" ref="O50:O55" si="17">G50/G$48</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="P50" s="6">
+        <f t="shared" ref="P50:P55" si="18">H50/H$48</f>
+        <v>4.8888888888888893</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C48" s="3"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3" t="d">
+        <v>2010-09-13</v>
+      </c>
+      <c r="D51">
+        <v>57.73</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F51" s="5">
+        <v>601.29999999999995</v>
+      </c>
+      <c r="G51" s="5">
+        <v>12.53</v>
+      </c>
+      <c r="H51" s="5">
+        <v>25.06</v>
+      </c>
+      <c r="J51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K51" s="3" t="d">
+        <v>2010-09-13</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" si="14"/>
+        <v>4.8512605042016803</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="N51" s="6">
+        <f t="shared" si="16"/>
+        <v>20.878472222222221</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="17"/>
+        <v>6.9611111111111104</v>
+      </c>
+      <c r="P51" s="6">
+        <f t="shared" si="18"/>
+        <v>6.9611111111111104</v>
+      </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="3"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="3" t="d">
+        <v>2011-03-15</v>
+      </c>
+      <c r="D52">
+        <v>98.5</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F52" s="5">
+        <v>691.2</v>
+      </c>
+      <c r="G52" s="5">
+        <v>21.6</v>
+      </c>
+      <c r="H52" s="5">
+        <v>28.8</v>
+      </c>
+      <c r="J52" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" s="3" t="d">
+        <v>2011-03-15</v>
+      </c>
+      <c r="L52" s="6">
+        <f t="shared" si="14"/>
+        <v>8.2773109243697469</v>
+      </c>
+      <c r="M52" s="6">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="N52" s="6">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="P52" s="6">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="3"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="3" t="d">
+        <v>2012-09-13</v>
+      </c>
+      <c r="D53">
+        <v>80</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F53" s="5">
+        <v>812.5</v>
+      </c>
+      <c r="G53" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H53" s="5">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="J53" t="s">
+        <v>53</v>
+      </c>
+      <c r="K53" s="3" t="d">
+        <v>2012-09-13</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="14"/>
+        <v>6.7226890756302522</v>
+      </c>
+      <c r="M53" s="6">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="N53" s="6">
+        <f t="shared" si="16"/>
+        <v>28.211805555555554</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="17"/>
+        <v>9.3888888888888875</v>
+      </c>
+      <c r="P53" s="6">
+        <f t="shared" si="18"/>
+        <v>9.3888888888888875</v>
+      </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="3"/>
-      <c r="H51" s="3"/>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="3" t="d">
+        <v>2014-02-28</v>
+      </c>
+      <c r="D54">
+        <v>80.2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1044</v>
+      </c>
+      <c r="G54" s="5">
+        <v>16.3</v>
+      </c>
+      <c r="H54" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="J54" t="s">
+        <v>54</v>
+      </c>
+      <c r="K54" s="3" t="d">
+        <v>2014-02-28</v>
+      </c>
+      <c r="L54" s="6">
+        <f t="shared" si="14"/>
+        <v>6.7394957983193278</v>
+      </c>
+      <c r="M54" s="6">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="N54" s="6">
+        <f t="shared" si="16"/>
+        <v>36.25</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="17"/>
+        <v>9.0555555555555554</v>
+      </c>
+      <c r="P54" s="6">
+        <f t="shared" si="18"/>
+        <v>9.0555555555555554</v>
+      </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H52" s="3"/>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="3" t="d">
+        <v>2015-08-20</v>
+      </c>
+      <c r="D55">
+        <v>106</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1572</v>
+      </c>
+      <c r="G55" s="5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H55" s="5">
+        <v>49.2</v>
+      </c>
+      <c r="J55" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" s="3" t="d">
+        <v>2015-08-20</v>
+      </c>
+      <c r="L55" s="6">
+        <f t="shared" si="14"/>
+        <v>8.9075630252100844</v>
+      </c>
+      <c r="M55" s="6">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="N55" s="6">
+        <f t="shared" si="16"/>
+        <v>54.583333333333329</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="17"/>
+        <v>18.166666666666668</v>
+      </c>
+      <c r="P55" s="6">
+        <f t="shared" si="18"/>
+        <v>13.666666666666668</v>
+      </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="3" t="d">
-        <v>1900-01-21T09:35:59.9999999998772175</v>
-      </c>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56">
-        <v>140</v>
-      </c>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C56" s="3"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C57" s="3"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C58" s="3"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C59" s="3"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C63" s="3"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C64" s="3"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C65" s="3"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C66" s="3"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="3" t="d">
+        <v>2006-01-01</v>
+      </c>
+      <c r="D68">
+        <v>10.7</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="3" t="d">
+        <v>2007-01-01</v>
+      </c>
+      <c r="D69">
+        <v>10.7</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C70" s="3"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="3" t="d">
+        <v>2008-06-05</v>
+      </c>
+      <c r="D72">
+        <v>17</v>
+      </c>
+      <c r="E72" s="5">
+        <v>32</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="J72" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72" s="3" t="d">
+        <v>2008-06-05</v>
+      </c>
+      <c r="L72" s="6">
+        <v>1</v>
+      </c>
+      <c r="M72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="3" t="d">
+        <v>2010-01-07</v>
+      </c>
+      <c r="D73">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E73" s="5">
+        <v>43.2</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="J73" t="s">
+        <v>44</v>
+      </c>
+      <c r="K73" s="3" t="d">
+        <v>2010-01-07</v>
+      </c>
+      <c r="L73" s="6">
+        <f>D73/D$72</f>
+        <v>1.0058823529411764</v>
+      </c>
+      <c r="M73" s="6">
+        <f>E73/E$72</f>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="3" t="d">
+        <v>2011-01-09</v>
+      </c>
+      <c r="D74">
+        <v>21.3</v>
+      </c>
+      <c r="E74" s="5">
+        <v>129.6</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="J74" t="s">
+        <v>43</v>
+      </c>
+      <c r="K74" s="3" t="d">
+        <v>2011-01-09</v>
+      </c>
+      <c r="L74" s="6">
+        <f t="shared" ref="L74:M79" si="19">D74/D$72</f>
+        <v>1.2529411764705882</v>
+      </c>
+      <c r="M74" s="6">
+        <f t="shared" si="19"/>
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="3" t="d">
+        <v>2012-04-23</v>
+      </c>
+      <c r="D75">
+        <v>25.6</v>
+      </c>
+      <c r="E75" s="5">
+        <v>332.8</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="J75" t="s">
+        <v>42</v>
+      </c>
+      <c r="K75" s="3" t="d">
+        <v>2012-04-23</v>
+      </c>
+      <c r="L75" s="6">
+        <f t="shared" si="19"/>
+        <v>1.5058823529411764</v>
+      </c>
+      <c r="M75" s="6">
+        <f t="shared" si="19"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="3" t="d">
+        <v>2013-06-02</v>
+      </c>
+      <c r="D76">
+        <v>25.6</v>
+      </c>
+      <c r="E76" s="5">
+        <v>432</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="J76" t="s">
+        <v>41</v>
+      </c>
+      <c r="K76" s="3" t="d">
+        <v>2013-06-02</v>
+      </c>
+      <c r="L76" s="6">
+        <f t="shared" si="19"/>
+        <v>1.5058823529411764</v>
+      </c>
+      <c r="M76" s="6">
+        <f t="shared" si="19"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="3" t="d">
+        <v>2015-01-05</v>
+      </c>
+      <c r="D77">
+        <v>25.6</v>
+      </c>
+      <c r="E77" s="5">
+        <v>364.8</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="J77" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77" s="3" t="d">
+        <v>2015-01-05</v>
+      </c>
+      <c r="L77" s="6">
+        <f t="shared" si="19"/>
+        <v>1.5058823529411764</v>
+      </c>
+      <c r="M77" s="6">
+        <f t="shared" si="19"/>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="3" t="d">
+        <v>2015-08-05</v>
+      </c>
+      <c r="D78">
+        <v>34.1</v>
+      </c>
+      <c r="E78" s="5">
+        <v>403.2</v>
+      </c>
+      <c r="H78" s="3"/>
+      <c r="J78" t="s">
+        <v>39</v>
+      </c>
+      <c r="K78" s="3" t="d">
+        <v>2015-08-05</v>
+      </c>
+      <c r="L78" s="6">
+        <f t="shared" si="19"/>
+        <v>2.0058823529411764</v>
+      </c>
+      <c r="M78" s="6">
+        <f t="shared" si="19"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="3" t="d">
+        <v>2016-08-30</v>
+      </c>
+      <c r="D79">
+        <v>34.1</v>
+      </c>
+      <c r="F79" s="5"/>
+      <c r="H79" s="3"/>
+      <c r="J79" t="s">
+        <v>48</v>
+      </c>
+      <c r="K79" s="3" t="d">
+        <v>2016-08-30</v>
+      </c>
+      <c r="L79" s="6">
+        <f t="shared" si="19"/>
+        <v>2.0058823529411764</v>
+      </c>
+      <c r="M79" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3" t="d">
+        <v>1900-01-21T09:35:59.9999999998772175</v>
+      </c>
+      <c r="E82">
+        <v>256</v>
+      </c>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>176</v>
+      </c>
+      <c r="E83">
+        <v>8192</v>
+      </c>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>9</v>
       </c>
-      <c r="D57">
+      <c r="D84">
         <v>218</v>
       </c>
-      <c r="H57" s="5"/>
+      <c r="E84">
+        <v>8192</v>
+      </c>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" t="s">
+        <v>12</v>
+      </c>
+      <c r="K102" t="s">
+        <v>61</v>
+      </c>
+      <c r="L102" t="s">
+        <v>62</v>
+      </c>
+      <c r="M102" t="s">
+        <v>67</v>
+      </c>
+      <c r="N102" t="s">
+        <v>66</v>
+      </c>
+      <c r="O102" t="s">
+        <v>63</v>
+      </c>
+      <c r="P102" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103">
+        <v>11.9</v>
+      </c>
+      <c r="D103">
+        <v>256</v>
+      </c>
+      <c r="E103" s="5">
+        <v>28.8</v>
+      </c>
+      <c r="F103" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="G103" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="J103" t="s">
+        <v>58</v>
+      </c>
+      <c r="K103" s="6">
+        <f>E103/C103</f>
+        <v>2.4201680672268906</v>
+      </c>
+      <c r="L103" s="6">
+        <f>E107/C107</f>
+        <v>12.059374999999999</v>
+      </c>
+      <c r="M103" s="6">
+        <f>E111/C111</f>
+        <v>10.415728390784688</v>
+      </c>
+      <c r="N103" s="6">
+        <f>E115/C115</f>
+        <v>10.15625</v>
+      </c>
+      <c r="O103" s="6">
+        <f>E119/C119</f>
+        <v>13.017456359102244</v>
+      </c>
+      <c r="P103" s="6" t="e">
+        <f>E126/C126</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="5">
+        <v>20.9</v>
+      </c>
+      <c r="D104">
+        <v>256</v>
+      </c>
+      <c r="E104" s="5">
+        <v>75.5</v>
+      </c>
+      <c r="F104" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="G104" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="J104" t="s">
+        <v>59</v>
+      </c>
+      <c r="K104" s="6">
+        <f t="shared" ref="K104:K105" si="20">E104/C104</f>
+        <v>3.6124401913875599</v>
+      </c>
+      <c r="L104" s="6">
+        <f t="shared" ref="L104:L105" si="21">E108/C108</f>
+        <v>6.3931367292225199</v>
+      </c>
+      <c r="M104" s="6">
+        <f t="shared" ref="M104:M105" si="22">E112/C112</f>
+        <v>7.875</v>
+      </c>
+      <c r="N104" s="6">
+        <f>E116/C116</f>
+        <v>13.048543689320388</v>
+      </c>
+      <c r="O104" s="6">
+        <f>E120/C120</f>
+        <v>20.607142857142858</v>
+      </c>
+      <c r="P104" s="6">
+        <f>E127/C127</f>
+        <v>20.078125</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105">
+        <v>86.4</v>
+      </c>
+      <c r="D105">
+        <v>768</v>
+      </c>
+      <c r="E105">
+        <v>518</v>
+      </c>
+      <c r="F105">
+        <v>13.8</v>
+      </c>
+      <c r="G105" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="J105" t="s">
+        <v>60</v>
+      </c>
+      <c r="K105" s="6">
+        <f t="shared" si="20"/>
+        <v>5.9953703703703702</v>
+      </c>
+      <c r="L105" s="6">
+        <f t="shared" si="21"/>
+        <v>6.5851799576570222</v>
+      </c>
+      <c r="M105" s="6">
+        <f t="shared" si="22"/>
+        <v>7.5817361894024797</v>
+      </c>
+      <c r="N105" s="6">
+        <f>E117/C117</f>
+        <v>16.074400798934754</v>
+      </c>
+      <c r="O105" s="6">
+        <f>E121/C121</f>
+        <v>20.589285714285715</v>
+      </c>
+      <c r="P105" s="6">
+        <f>E128/C128</f>
+        <v>25.712499999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107">
+        <v>32</v>
+      </c>
+      <c r="D107" s="1">
+        <v>512</v>
+      </c>
+      <c r="E107" s="5">
+        <v>385.9</v>
+      </c>
+      <c r="F107" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G107" s="5">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="5">
+        <v>111.9</v>
+      </c>
+      <c r="D108">
+        <v>896</v>
+      </c>
+      <c r="E108" s="5">
+        <v>715.39200000000005</v>
+      </c>
+      <c r="F108" s="5">
+        <v>16.128</v>
+      </c>
+      <c r="G108" s="5">
+        <v>36.863999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="D109">
+        <v>1024</v>
+      </c>
+      <c r="E109">
+        <v>933.12</v>
+      </c>
+      <c r="F109">
+        <v>19.263999999999999</v>
+      </c>
+      <c r="G109" s="5">
+        <v>48.16</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111">
+        <v>57.73</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1024</v>
+      </c>
+      <c r="E111" s="5">
+        <v>601.29999999999995</v>
+      </c>
+      <c r="F111" s="5">
+        <v>12.53</v>
+      </c>
+      <c r="G111" s="5">
+        <v>25.06</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" s="5">
+        <v>115.2</v>
+      </c>
+      <c r="D112">
+        <v>1024</v>
+      </c>
+      <c r="E112" s="5">
+        <v>907.2</v>
+      </c>
+      <c r="F112" s="5">
+        <v>21.6</v>
+      </c>
+      <c r="G112" s="5">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113">
+        <v>177.4</v>
+      </c>
+      <c r="D113">
+        <v>1536</v>
+      </c>
+      <c r="E113">
+        <v>1345</v>
+      </c>
+      <c r="F113">
+        <v>33.6</v>
+      </c>
+      <c r="G113" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115">
+        <v>80</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1024</v>
+      </c>
+      <c r="E115" s="5">
+        <v>812.5</v>
+      </c>
+      <c r="F115" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G115" s="5">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" s="5">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="D116">
+        <v>1536</v>
+      </c>
+      <c r="E116" s="5">
+        <v>1881.6</v>
+      </c>
+      <c r="F116" s="5">
+        <v>23.5</v>
+      </c>
+      <c r="G116" s="5">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117">
+        <v>192.256</v>
+      </c>
+      <c r="D117">
+        <v>2048</v>
+      </c>
+      <c r="E117">
+        <v>3090.4</v>
+      </c>
+      <c r="F117">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G117" s="5">
+        <v>128.80000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119">
+        <v>80.2</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1024</v>
+      </c>
+      <c r="E119" s="5">
+        <v>1044</v>
+      </c>
+      <c r="F119" s="5">
+        <v>16.3</v>
+      </c>
+      <c r="G119" s="5">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="5">
+        <v>112</v>
+      </c>
+      <c r="D120">
+        <v>2048</v>
+      </c>
+      <c r="E120" s="5">
+        <v>2308</v>
+      </c>
+      <c r="F120" s="5">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="G120" s="5">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121">
+        <v>224</v>
+      </c>
+      <c r="D121">
+        <v>4096</v>
+      </c>
+      <c r="E121">
+        <v>4612</v>
+      </c>
+      <c r="F121">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="G121" s="5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123">
+        <v>106</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2048</v>
+      </c>
+      <c r="E123" s="5">
+        <v>1572</v>
+      </c>
+      <c r="F123" s="5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G123" s="5">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124">
+        <v>336</v>
+      </c>
+      <c r="D124">
+        <v>6144</v>
+      </c>
+      <c r="E124">
+        <v>5632</v>
+      </c>
+      <c r="F124">
+        <v>96</v>
+      </c>
+      <c r="G124" s="5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" s="5">
+        <v>192</v>
+      </c>
+      <c r="D127">
+        <v>6144</v>
+      </c>
+      <c r="E127" s="5">
+        <v>3855</v>
+      </c>
+      <c r="F127" s="5">
+        <v>72.3</v>
+      </c>
+      <c r="G127" s="5">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128">
+        <v>320</v>
+      </c>
+      <c r="D128">
+        <v>8192</v>
+      </c>
+      <c r="E128">
+        <v>8228</v>
+      </c>
+      <c r="F128">
+        <v>102.8</v>
+      </c>
+      <c r="G128" s="5">
+        <v>257.10000000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/GPU database.xlsx
+++ b/doc/GPU database.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
-    <sheet name="graft" sheetId="1" r:id="rId2"/>
+    <sheet name="Mobile" sheetId="4" r:id="rId2"/>
+    <sheet name="graft" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="203" uniqueCount="72">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="303" uniqueCount="141">
   <si>
     <t>PS4 bandwidth</t>
   </si>
@@ -245,6 +246,253 @@
   <si>
     <t>GeForce GTX 1060</t>
   </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Exynos 8890</t>
+  </si>
+  <si>
+    <t>Galazy S7</t>
+  </si>
+  <si>
+    <t>Galaxy S6</t>
+  </si>
+  <si>
+    <t>Galaxy S5</t>
+  </si>
+  <si>
+    <t>Galaxy S4</t>
+  </si>
+  <si>
+    <t>Galaxy S3</t>
+  </si>
+  <si>
+    <t>Galaxy S2</t>
+  </si>
+  <si>
+    <t>Galaxy S</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>SoC</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Bandwidth GB/s</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Exynos 5410</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>Exynos 5422</t>
+  </si>
+  <si>
+    <t>Exynos 7420</t>
+  </si>
+  <si>
+    <t>Mali 400MP4</t>
+  </si>
+  <si>
+    <t>PowerVR SGX544MP3</t>
+  </si>
+  <si>
+    <t>Mali-T628 MP6</t>
+  </si>
+  <si>
+    <t>Mali-T880 MP12</t>
+  </si>
+  <si>
+    <t>Mali-T760 MP8</t>
+  </si>
+  <si>
+    <t>Exynos 4412</t>
+  </si>
+  <si>
+    <t>Exynos 4210</t>
+  </si>
+  <si>
+    <t>PowerVR SGX540</t>
+  </si>
+  <si>
+    <t>Exynos 3110</t>
+  </si>
+  <si>
+    <t>480*800</t>
+  </si>
+  <si>
+    <t>720*1280</t>
+  </si>
+  <si>
+    <t>1080*1920</t>
+  </si>
+  <si>
+    <t>1440*2560</t>
+  </si>
+  <si>
+    <t>Pixels</t>
+  </si>
+  <si>
+    <t>Bandwidth KB/s</t>
+  </si>
+  <si>
+    <t>KFLOPS</t>
+  </si>
+  <si>
+    <t>iPhone 7 Plus</t>
+  </si>
+  <si>
+    <t>iPhone 6S Plus</t>
+  </si>
+  <si>
+    <t>iPhone 6 Plus</t>
+  </si>
+  <si>
+    <t>1920*1080</t>
+  </si>
+  <si>
+    <t>PowerVR GT7600</t>
+  </si>
+  <si>
+    <t>PowerVR GX6450</t>
+  </si>
+  <si>
+    <t>PowerVR G6430</t>
+  </si>
+  <si>
+    <t>iPhone 5S</t>
+  </si>
+  <si>
+    <r>
+      <t>PowerVR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SGX543MP3</t>
+    </r>
+  </si>
+  <si>
+    <t>iPhone 5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>iPhone 4S</t>
+  </si>
+  <si>
+    <t>iPhone 4</t>
+  </si>
+  <si>
+    <t>iPhone 3Gs</t>
+  </si>
+  <si>
+    <t>iPhone 3G</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <r>
+      <t>PowerVR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SGX543MP2</t>
+    </r>
+  </si>
+  <si>
+    <t>960×640 </t>
+  </si>
+  <si>
+    <t>1136*640</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PowerVR SGX535</t>
+  </si>
+  <si>
+    <t>Samsung S5PC100</t>
+  </si>
+  <si>
+    <t>480*320</t>
+  </si>
+  <si>
+    <t>PowerVR MBX Lite 3D </t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>PowerVR GT7600 Plus</t>
+  </si>
+  <si>
+    <t>GHLOPS</t>
+  </si>
+  <si>
+    <t>iPhone KB/s/pixel</t>
+  </si>
+  <si>
+    <t>iPhone KFLOPS/pixel</t>
+  </si>
+  <si>
+    <t>Galaxy S KB/s/pixel</t>
+  </si>
+  <si>
+    <t>Galaxy S KFLOPS/pixel</t>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +501,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +519,12 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0B0080"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -295,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -303,6 +557,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,11 +1295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1235428976"/>
-        <c:axId val="-1235437136"/>
+        <c:axId val="853626240"/>
+        <c:axId val="853626784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1235428976"/>
+        <c:axId val="853626240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42600"/>
@@ -1102,13 +1358,13 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1235437136"/>
+        <c:crossAx val="853626784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1235437136"/>
+        <c:axId val="853626784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -1166,7 +1422,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1235428976"/>
+        <c:crossAx val="853626240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2036,11 +2292,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1235432240"/>
-        <c:axId val="-1235437680"/>
+        <c:axId val="853622976"/>
+        <c:axId val="853624608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1235432240"/>
+        <c:axId val="853622976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42600"/>
@@ -2099,13 +2355,13 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1235437680"/>
+        <c:crossAx val="853624608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1235437680"/>
+        <c:axId val="853624608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +2418,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1235432240"/>
+        <c:crossAx val="853622976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2567,11 +2823,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1206852720"/>
-        <c:axId val="-1275730064"/>
+        <c:axId val="853632768"/>
+        <c:axId val="853631136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1206852720"/>
+        <c:axId val="853632768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42300"/>
@@ -2611,7 +2867,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2630,13 +2886,13 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1275730064"/>
+        <c:crossAx val="853631136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1275730064"/>
+        <c:axId val="853631136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -2694,7 +2950,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1206852720"/>
+        <c:crossAx val="853632768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3429,11 +3685,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1434882432"/>
-        <c:axId val="-1434868832"/>
+        <c:axId val="853634400"/>
+        <c:axId val="853634944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1434882432"/>
+        <c:axId val="853634400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42250"/>
@@ -3473,7 +3729,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3492,13 +3748,13 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1434868832"/>
+        <c:crossAx val="853634944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1434868832"/>
+        <c:axId val="853634944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3555,7 +3811,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1434882432"/>
+        <c:crossAx val="853634400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3651,6 +3907,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200"/>
+              <a:t>Samsung Galaxy S, bandwidth</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200" baseline="0%"/>
+              <a:t> and flops per pixel</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3682,219 +3969,227 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7243000874890642E-2"/>
+          <c:y val="0.12125984251968504"/>
+          <c:w val="0.80421544181977256"/>
+          <c:h val="0.60201789736912803"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>graft!$E$14</c:f>
+              <c:f>Mobile!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GeForce  High-end</c:v>
+                  <c:v>Galaxy S KB/s/pixel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mobile!$N$8:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41740</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mobile!$O$8:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.5535999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.476266666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2817777777777781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4726913580246919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5346172839506176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0769777777777776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1635555555555559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mobile!$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Galaxy S KFLOPS/pixel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75%"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>graft!$F$14:$P$14</c:f>
+              <c:f>Mobile!$N$8:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41740</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mobile!$P$8:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>86.4</c:v>
+                  <c:v>8.7381333333333338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103.7</c:v>
+                  <c:v>26.214399999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141.69999999999999</c:v>
+                  <c:v>18.022400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>159</c:v>
+                  <c:v>24.778271604938272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192.4</c:v>
+                  <c:v>51.781530864197535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192.4</c:v>
+                  <c:v>59.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>192.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>480</c:v>
+                  <c:v>75.434666666666658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>graft!$E$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GeForce *50 Series</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>graft!$F$15:$P$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57.73</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>98.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>86.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>86.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>86.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>112</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>graft!$E$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Intel volume</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>graft!$F$16:$P$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3904,17 +4199,33 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-1235431696"/>
-        <c:axId val="-1235426800"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1235431696"/>
+        <c:axId val="876754592"/>
+        <c:axId val="876754048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="876754592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="42500"/>
+          <c:min val="40250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-409]d\-mmm\-yyyy;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3923,8 +4234,71 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15%"/>
-                <a:lumOff val="85%"/>
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="876754048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="250"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="876754048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3951,68 +4325,9 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1235426800"/>
+        <c:crossAx val="876754592"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1235426800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1235431696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4024,6 +4339,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4124,12 +4440,750 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>10 years of GPU memory bandwidth. Y-axis in GB/s</a:t>
+              <a:rPr lang="fr-FR" sz="1200"/>
+              <a:t>Galaxy S and iPhone evolution of bandwidth</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200" baseline="0%"/>
+              <a:t> and flops per pixel</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7243000874890642E-2"/>
+          <c:y val="0.12125984251968504"/>
+          <c:w val="0.80421544181977256"/>
+          <c:h val="0.55626627553908703"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mobile!$O$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iPhone KB/s/pixel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mobile!$N$21:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>39262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39640</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40820</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mobile!$O$21:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.6317866666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6317866666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.922666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.461333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.922666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.259154929577464</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.460845070422536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4726913580246919</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.945382716049384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.945382716049384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mobile!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iPhone KFLOPS/pixel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mobile!$N$21:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>39262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39640</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40820</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mobile!$P$21:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4133333333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.306666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.777464788732395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110.7650704225352</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.254222222222225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>126.41975308641975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174.76266666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mobile!$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Galaxy S KB/s/pixel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mobile!$N$8:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41740</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mobile!$O$8:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.5535999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.476266666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2817777777777781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4726913580246919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5346172839506176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0769777777777776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1635555555555559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mobile!$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Galaxy S KFLOPS/pixel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mobile!$N$8:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41740</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mobile!$P$8:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.7381333333333338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.214399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.022400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.778271604938272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.781530864197535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.434666666666658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="537531952"/>
+        <c:axId val="537530864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="537531952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42750"/>
+          <c:min val="39500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-409]d\-mmm\-yyyy;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537530864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="250"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="537530864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="180"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537531952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4182,6 +5236,487 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>graft!$F$14:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graft!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *50 Series</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>graft!$F$15:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graft!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel volume</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>graft!$F$16:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="853621344"/>
+        <c:axId val="853630048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="853621344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853630048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="853630048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853621344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>10 years of GPU memory bandwidth. Y-axis in GB/s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graft!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce  High-end</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
@@ -4740,11 +6275,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1235427888"/>
-        <c:axId val="-1235440944"/>
+        <c:axId val="853627872"/>
+        <c:axId val="853624064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1235427888"/>
+        <c:axId val="853627872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4787,7 +6322,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1235440944"/>
+        <c:crossAx val="853624064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4795,7 +6330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1235440944"/>
+        <c:axId val="853624064"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -4849,7 +6384,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1235427888"/>
+        <c:crossAx val="853627872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4863,6 +6398,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5169,6 +6705,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
   <cs:axisTitle>
@@ -7234,6 +8850,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7749,7 +10397,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8391,6 +11039,71 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8720,8 +11433,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E126" sqref="C126:E126"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11611,10 +14324,966 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="3" t="d">
+        <v>2010-06-04</v>
+      </c>
+      <c r="F8">
+        <v>2.4</v>
+      </c>
+      <c r="G8">
+        <v>3.2</v>
+      </c>
+      <c r="I8">
+        <v>384000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="7">
+        <f>F8*1024*1024</f>
+        <v>2516582.3999999999</v>
+      </c>
+      <c r="L8">
+        <f>G8*1024*1024</f>
+        <v>3355443.2000000002</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="3" t="d">
+        <v>2010-06-04</v>
+      </c>
+      <c r="O8">
+        <f>K8/I8</f>
+        <v>6.5535999999999994</v>
+      </c>
+      <c r="P8">
+        <f>L8/I8</f>
+        <v>8.7381333333333338</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="3" t="d">
+        <v>2011-05-02</v>
+      </c>
+      <c r="F9">
+        <v>6.4</v>
+      </c>
+      <c r="G9">
+        <v>9.6</v>
+      </c>
+      <c r="I9">
+        <v>384000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" ref="K9:K14" si="0">F9*1024*1024</f>
+        <v>6710886.4000000004</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L14" si="1">G9*1024*1024</f>
+        <v>10066329.6</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="3" t="d">
+        <v>2011-05-02</v>
+      </c>
+      <c r="O9">
+        <f>K9/I9</f>
+        <v>17.476266666666668</v>
+      </c>
+      <c r="P9">
+        <f>L9/I9</f>
+        <v>26.214399999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="3" t="d">
+        <v>2012-05-29</v>
+      </c>
+      <c r="F10">
+        <v>6.4</v>
+      </c>
+      <c r="G10">
+        <v>15.84</v>
+      </c>
+      <c r="I10">
+        <v>921600</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
+        <v>6710886.4000000004</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>16609443.84</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="3" t="d">
+        <v>2012-05-29</v>
+      </c>
+      <c r="O10">
+        <f>K10/I10</f>
+        <v>7.2817777777777781</v>
+      </c>
+      <c r="P10">
+        <f>L10/I10</f>
+        <v>18.022400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="3" t="d">
+        <v>2013-04-27</v>
+      </c>
+      <c r="F11">
+        <v>12.8</v>
+      </c>
+      <c r="G11">
+        <v>49</v>
+      </c>
+      <c r="I11">
+        <v>2073600</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>13421772.800000001</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>51380224</v>
+      </c>
+      <c r="M11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="3" t="d">
+        <v>2013-04-27</v>
+      </c>
+      <c r="O11">
+        <f>K11/I11</f>
+        <v>6.4726913580246919</v>
+      </c>
+      <c r="P11">
+        <f>L11/I11</f>
+        <v>24.778271604938272</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="3" t="d">
+        <v>2014-04-11</v>
+      </c>
+      <c r="F12">
+        <v>14.9</v>
+      </c>
+      <c r="G12">
+        <v>102.4</v>
+      </c>
+      <c r="I12">
+        <v>2073600</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="0"/>
+        <v>15623782.4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>107374182.40000001</v>
+      </c>
+      <c r="M12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="3" t="d">
+        <v>2014-04-11</v>
+      </c>
+      <c r="O12">
+        <f>K12/I12</f>
+        <v>7.5346172839506176</v>
+      </c>
+      <c r="P12">
+        <f>L12/I12</f>
+        <v>51.781530864197535</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="3" t="d">
+        <v>2015-04-10</v>
+      </c>
+      <c r="F13">
+        <v>24.88</v>
+      </c>
+      <c r="G13">
+        <v>210</v>
+      </c>
+      <c r="I13">
+        <v>3686400</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="0"/>
+        <v>26088570.879999999</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>220200960</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="3" t="d">
+        <v>2015-04-10</v>
+      </c>
+      <c r="O13">
+        <f>K13/I13</f>
+        <v>7.0769777777777776</v>
+      </c>
+      <c r="P13">
+        <f>L13/I13</f>
+        <v>59.733333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="3" t="d">
+        <v>2016-03-11</v>
+      </c>
+      <c r="F14">
+        <v>28.7</v>
+      </c>
+      <c r="G14">
+        <v>265.2</v>
+      </c>
+      <c r="I14">
+        <v>3686400</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="0"/>
+        <v>30094131.199999999</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>278082355.19999999</v>
+      </c>
+      <c r="M14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" s="3" t="d">
+        <v>2016-03-11</v>
+      </c>
+      <c r="O14">
+        <f>K14/I14</f>
+        <v>8.1635555555555559</v>
+      </c>
+      <c r="P14">
+        <f>L14/I14</f>
+        <v>75.434666666666658</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="3" t="d">
+        <v>2007-06-29</v>
+      </c>
+      <c r="F21">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="I21">
+        <v>153600</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21">
+        <v>128</v>
+      </c>
+      <c r="L21" s="7">
+        <f>F21*1024*1024</f>
+        <v>557842.43200000003</v>
+      </c>
+      <c r="M21" s="7">
+        <f>G21*1024*1024</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="d">
+        <v>2007-06-29</v>
+      </c>
+      <c r="O21">
+        <f>L21/I21</f>
+        <v>3.6317866666666667</v>
+      </c>
+      <c r="P21">
+        <f>M21/I21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="3" t="d">
+        <v>2008-07-11</v>
+      </c>
+      <c r="F22">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="I22">
+        <v>153600</v>
+      </c>
+      <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" ref="L22:L30" si="2">F22*1024*1024</f>
+        <v>557842.43200000003</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" ref="M22:M30" si="3">G22*1024*1024</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="d">
+        <v>2008-07-11</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:O30" si="4">L22/I22</f>
+        <v>3.6317866666666667</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:P30" si="5">M22/I22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="3" t="d">
+        <v>2009-06-19</v>
+      </c>
+      <c r="F23">
+        <v>1.6</v>
+      </c>
+      <c r="G23">
+        <v>1.2</v>
+      </c>
+      <c r="I23">
+        <v>153600</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23">
+        <v>256</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>1677721.6000000001</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="3"/>
+        <v>1258291.2</v>
+      </c>
+      <c r="N23" s="3" t="d">
+        <v>2009-06-19</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>10.922666666666668</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>8.1920000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="3" t="d">
+        <v>2010-06-24</v>
+      </c>
+      <c r="F24">
+        <v>3.2</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>614400</v>
+      </c>
+      <c r="J24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24">
+        <v>512</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>3355443.2000000002</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="3"/>
+        <v>2097152</v>
+      </c>
+      <c r="N24" s="3" t="d">
+        <v>2010-06-24</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>5.461333333333334</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>3.4133333333333336</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="3" t="d">
+        <v>2011-10-04</v>
+      </c>
+      <c r="F25">
+        <v>6.4</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <v>614400</v>
+      </c>
+      <c r="J25" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25">
+        <v>512</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="2"/>
+        <v>6710886.4000000004</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="3"/>
+        <v>16777216</v>
+      </c>
+      <c r="N25" s="3" t="d">
+        <v>2011-10-04</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>10.922666666666668</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>27.306666666666668</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="3" t="d">
+        <v>2012-09-12</v>
+      </c>
+      <c r="F26">
+        <v>8.5</v>
+      </c>
+      <c r="G26">
+        <v>25.5</v>
+      </c>
+      <c r="I26">
+        <v>727040</v>
+      </c>
+      <c r="J26" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26">
+        <v>1024</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="2"/>
+        <v>8912896</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="3"/>
+        <v>26738688</v>
+      </c>
+      <c r="N26" s="3" t="d">
+        <v>2012-09-12</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>12.259154929577464</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>36.777464788732395</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="3" t="d">
+        <v>2013-09-20</v>
+      </c>
+      <c r="F27">
+        <v>12.8</v>
+      </c>
+      <c r="G27">
+        <v>76.8</v>
+      </c>
+      <c r="H27">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="I27">
+        <v>727040</v>
+      </c>
+      <c r="J27" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27">
+        <v>1024</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="2"/>
+        <v>13421772.800000001</v>
+      </c>
+      <c r="M27" s="7">
+        <f t="shared" si="3"/>
+        <v>80530636.799999997</v>
+      </c>
+      <c r="N27" s="3" t="d">
+        <v>2013-09-20</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>18.460845070422536</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>110.7650704225352</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="3" t="d">
+        <v>2014-09-19</v>
+      </c>
+      <c r="F28">
+        <v>12.8</v>
+      </c>
+      <c r="G28">
+        <v>115.2</v>
+      </c>
+      <c r="H28">
+        <v>230.4</v>
+      </c>
+      <c r="I28">
+        <v>2073600</v>
+      </c>
+      <c r="J28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28">
+        <v>1024</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="2"/>
+        <v>13421772.800000001</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" si="3"/>
+        <v>120795955.2</v>
+      </c>
+      <c r="N28" s="3" t="d">
+        <v>2014-09-19</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>6.4726913580246919</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>58.254222222222225</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="3" t="d">
+        <v>2015-09-25</v>
+      </c>
+      <c r="F29">
+        <v>25.6</v>
+      </c>
+      <c r="G29">
+        <v>250</v>
+      </c>
+      <c r="H29">
+        <v>500</v>
+      </c>
+      <c r="I29">
+        <v>2073600</v>
+      </c>
+      <c r="J29" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29">
+        <v>2048</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="2"/>
+        <v>26843545.600000001</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" si="3"/>
+        <v>262144000</v>
+      </c>
+      <c r="N29" s="3" t="d">
+        <v>2015-09-25</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>12.945382716049384</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="5"/>
+        <v>126.41975308641975</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="3" t="d">
+        <v>2016-09-16</v>
+      </c>
+      <c r="F30">
+        <v>25.6</v>
+      </c>
+      <c r="G30">
+        <v>345.6</v>
+      </c>
+      <c r="H30">
+        <v>691.2</v>
+      </c>
+      <c r="I30">
+        <v>2073600</v>
+      </c>
+      <c r="J30" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30">
+        <v>3072</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="2"/>
+        <v>26843545.600000001</v>
+      </c>
+      <c r="M30" s="7">
+        <f t="shared" si="3"/>
+        <v>362387865.60000002</v>
+      </c>
+      <c r="N30" s="3" t="d">
+        <v>2016-09-16</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>12.945382716049384</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="5"/>
+        <v>174.76266666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" tooltip="IPhone 6" display="https://en.wikipedia.org/wiki/IPhone_6"/>
+    <hyperlink ref="D29" r:id="rId2" location="Series_7XT" tooltip="PowerVR" display="https://en.wikipedia.org/wiki/PowerVR - Series_7XT"/>
+    <hyperlink ref="D27" r:id="rId3" location="Series_6_.28Rogue.29" tooltip="PowerVR" display="https://en.wikipedia.org/wiki/PowerVR - Series_6_.28Rogue.29"/>
+    <hyperlink ref="C23" r:id="rId4" tooltip="Samsung" display="https://en.wikipedia.org/wiki/Samsung"/>
+    <hyperlink ref="D22" r:id="rId5" tooltip="PowerVR" display="https://en.wikipedia.org/wiki/PowerVR"/>
+    <hyperlink ref="D21" r:id="rId6" tooltip="PowerVR" display="https://en.wikipedia.org/wiki/PowerVR"/>
+    <hyperlink ref="D30" r:id="rId7" location="Series_7XT" tooltip="PowerVR" display="https://en.wikipedia.org/wiki/PowerVR - Series_7XT"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="P17" sqref="E17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/GPU database.xlsx
+++ b/doc/GPU database.xlsx
@@ -5,17 +5,21 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\G-Truc\website\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\website\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
     <sheet name="Mobile" sheetId="4" r:id="rId2"/>
-    <sheet name="graft" sheetId="1" r:id="rId3"/>
+    <sheet name="Range" sheetId="5" r:id="rId3"/>
+    <sheet name="graft" sheetId="1" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="303" uniqueCount="141">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="370" uniqueCount="151">
   <si>
     <t>PS4 bandwidth</t>
   </si>
@@ -493,6 +497,36 @@
   <si>
     <t>Galaxy S KFLOPS/pixel</t>
   </si>
+  <si>
+    <t>GeForce *50 GB/s</t>
+  </si>
+  <si>
+    <t>GeForce *50 Memory (MB)</t>
+  </si>
+  <si>
+    <t>GeForce *50 GFLOPS</t>
+  </si>
+  <si>
+    <t>GeForce *50 Pixel (GP/s)</t>
+  </si>
+  <si>
+    <t>GeForce *50 Texture (GT/s)</t>
+  </si>
+  <si>
+    <t>GeForce *80 GB/s</t>
+  </si>
+  <si>
+    <t>GeForce *80 Memory (MB)</t>
+  </si>
+  <si>
+    <t>GeForce *80 GFLOPS</t>
+  </si>
+  <si>
+    <t>GeForce *80 Pixel (GP/s)</t>
+  </si>
+  <si>
+    <t>GeForce *80 Texture (GT/s)</t>
+  </si>
 </sst>
 </file>
 
@@ -549,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -559,6 +593,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,7 +658,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -647,7 +683,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1295,11 +1331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="853626240"/>
-        <c:axId val="853626784"/>
+        <c:axId val="1800929168"/>
+        <c:axId val="1800924816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="853626240"/>
+        <c:axId val="1800929168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42600"/>
@@ -1355,16 +1391,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="853626784"/>
+        <c:crossAx val="1800924816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="853626784"/>
+        <c:axId val="1800924816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -1419,10 +1455,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="853626240"/>
+        <c:crossAx val="1800929168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1436,7 +1472,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1462,7 +1497,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1492,7 +1527,846 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>10 years of GPU memory bandwidth. Y-axis in GB/s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graft!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce  High-end</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>graft!$F$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graft!$F$14:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graft!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *50 Series</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>graft!$F$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graft!$F$15:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graft!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel volume</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>graft!$F$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graft!$F$16:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graft!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iPhone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>graft!$F$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graft!$F$17:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graft!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Playstation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>graft!$F$13:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graft!$F$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1586984128"/>
+        <c:axId val="1586993376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1586984128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586993376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1586993376"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="512"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586984128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1574,7 +2448,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1614,7 +2487,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2292,11 +3165,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="853622976"/>
-        <c:axId val="853624608"/>
+        <c:axId val="1800934064"/>
+        <c:axId val="1800934608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="853622976"/>
+        <c:axId val="1800934064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42600"/>
@@ -2352,16 +3225,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="853624608"/>
+        <c:crossAx val="1800934608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="853624608"/>
+        <c:axId val="1800934608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,10 +3288,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="853622976"/>
+        <c:crossAx val="1800934064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2432,7 +3305,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2458,7 +3330,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2488,7 +3360,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2555,7 +3427,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2595,7 +3466,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2823,11 +3694,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="853632768"/>
-        <c:axId val="853631136"/>
+        <c:axId val="1800927536"/>
+        <c:axId val="1800925360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="853632768"/>
+        <c:axId val="1800927536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42300"/>
@@ -2883,16 +3754,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="853631136"/>
+        <c:crossAx val="1800925360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="853631136"/>
+        <c:axId val="1800925360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -2947,10 +3818,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="853632768"/>
+        <c:crossAx val="1800927536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2964,7 +3835,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2990,7 +3860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3020,7 +3890,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3087,7 +3957,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3127,7 +3996,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3685,11 +4554,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="853634400"/>
-        <c:axId val="853634944"/>
+        <c:axId val="1586985760"/>
+        <c:axId val="1586990656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="853634400"/>
+        <c:axId val="1586985760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42250"/>
@@ -3745,16 +4614,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="853634944"/>
+        <c:crossAx val="1586990656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="853634944"/>
+        <c:axId val="1586990656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3808,10 +4677,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="853634400"/>
+        <c:crossAx val="1586985760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3825,7 +4694,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3851,7 +4719,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3881,7 +4749,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3963,7 +4831,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4199,11 +5067,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="876754592"/>
-        <c:axId val="876754048"/>
+        <c:axId val="1586989024"/>
+        <c:axId val="1586989568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="876754592"/>
+        <c:axId val="1586989024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42500"/>
@@ -4243,7 +5111,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4259,16 +5127,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="876754048"/>
+        <c:crossAx val="1586989568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="876754048"/>
+        <c:axId val="1586989568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4322,10 +5190,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="876754592"/>
+        <c:crossAx val="1586989024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4365,7 +5233,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4395,7 +5263,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4477,7 +5345,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4959,11 +5827,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="537531952"/>
-        <c:axId val="537530864"/>
+        <c:axId val="1586988480"/>
+        <c:axId val="1586979232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="537531952"/>
+        <c:axId val="1586988480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42750"/>
@@ -5019,16 +5887,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537530864"/>
+        <c:crossAx val="1586979232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="537530864"/>
+        <c:axId val="1586979232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -5084,10 +5952,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537531952"/>
+        <c:crossAx val="1586988480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5127,7 +5995,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5157,7 +6025,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5183,6 +6051,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="0" i="0" baseline="0%">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Relative </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>evolution of mid range and high-end GeForce performance over 10 years</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5209,7 +6113,2736 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6137966217150814E-2"/>
+          <c:y val="6.2148148148148147E-2"/>
+          <c:w val="0.91666763633703974"/>
+          <c:h val="0.83525890930300384"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$M$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *80 GB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$L$19:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42157</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$M$19:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2002314814814814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6400462962962961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8402777777777777</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0532407407407405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2268518518518516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2251851851851852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7037037037037033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *80 Memory (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$L$19:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42157</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$N$19:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.666666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$O$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *80 GFLOPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$L$19:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42157</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$O$19:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.111969111969112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8013899613899613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0515830115830118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5965250965250966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0523166023166022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9660231660231666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6776061776061777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7413127413127416</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.903474903474903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.872586872586872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.884169884169884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$P$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *80 Pixel (GP/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$L$19:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42157</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$P$19:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0652173913043477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3959420289855071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5026086956521738</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4347826086956523</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6855072463768117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.043478260869565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.22463768115942</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9565217391304346</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4492753623188399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$Q$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *80 Texture (GT/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$L$19:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42157</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$Q$19:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0652173913043479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.308695652173913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4086956521739133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1413043478260871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3426630434782609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5108695652173916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7065217391304355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9130434782608701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7826086956521747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9864130434782616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *50 GB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="50.196%"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$L$8:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$M$8:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9327731092436975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6890756302521006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8512605042016803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2773109243697469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7226890756302522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7394957983193278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9075630252100844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *50 Memory (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0">
+                  <a:alpha val="50.196%"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$L$8:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$N$8:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *50 GFLOPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="50.196%"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$L$8:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$O$8:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.399305555555554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.878472222222221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.211805555555554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.583333333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *50 Pixel (GP/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000">
+                  <a:alpha val="50.196%"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$L$8:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$P$8:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9611111111111104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3888888888888875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.166666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$Q$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *50 Texture (GT/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0">
+                  <a:alpha val="50.196%"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$L$8:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$Q$8:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9611111111111104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3888888888888875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.666666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1869205968"/>
+        <c:axId val="1869206512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1869205968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42500"/>
+          <c:min val="39000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869206512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1869206512"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869205968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Absolute evolution of mid range and high-end GeForce performance over 10 years</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *50 GB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$D$8:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$E$8:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *50 Memory (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$D$8:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$F$8:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *50 GFLOPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$D$8:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$G$8:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>385.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>601.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>691.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>812.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *50 Pixel (GP/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$D$8:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$H$8:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *50 Texture (GT/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$D$8:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>39189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41698</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$I$8:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *80 GB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="50.196%"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$D$19:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42157</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$E$19:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *80 Memory (MB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0">
+                  <a:alpha val="50.196%"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$D$19:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42157</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$F$19:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *80 GFLOPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="50.196%"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$D$19:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42157</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$G$19:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>933.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1062.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1581.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3090.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5046</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4612</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5632</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *80 Pixel (GP/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000">
+                  <a:alpha val="50.196%"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$D$19:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42157</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$H$19:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.263999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.736000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]range!$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GeForce *80 Texture (GT/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0">
+                  <a:alpha val="50.196%"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]range!$D$19:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39616</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42157</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]range!$I$19:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>257.10000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1869214672"/>
+        <c:axId val="1869216304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1869214672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42750"/>
+          <c:min val="38750"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869216304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1869216304"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="8192"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869214672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5438,11 +9071,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="853621344"/>
-        <c:axId val="853630048"/>
+        <c:axId val="1586979776"/>
+        <c:axId val="1586991200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="853621344"/>
+        <c:axId val="1586979776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5481,10 +9114,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="853630048"/>
+        <c:crossAx val="1586991200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5492,7 +9125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="853630048"/>
+        <c:axId val="1586991200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5540,10 +9173,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="853621344"/>
+        <c:crossAx val="1586979776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5557,7 +9190,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5583,7 +9215,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5613,848 +9245,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>10 years of GPU memory bandwidth. Y-axis in GB/s</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>graft!$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GeForce  High-end</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>graft!$F$13:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>graft!$F$14:$P$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>86.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>141.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>192.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>192.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>192.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>480</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>graft!$E$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GeForce *50 Series</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>graft!$F$13:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>graft!$F$15:$P$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57.73</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>98.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>86.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>86.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>86.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>112</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>graft!$E$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Intel volume</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>graft!$F$13:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>graft!$F$16:$P$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>34.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>graft!$E$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>iPhone</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>graft!$F$13:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>graft!$F$17:$P$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>graft!$E$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Playstation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>graft!$F$13:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>graft!$F$18:$P$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>218</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="853627872"/>
-        <c:axId val="853624064"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="853627872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15%"/>
-                <a:lumOff val="85%"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="853624064"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="853624064"/>
-        <c:scaling>
-          <c:logBase val="2"/>
-          <c:orientation val="minMax"/>
-          <c:max val="512"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="853627872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15%"/>
-          <a:lumOff val="85%"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6466,6 +9257,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6785,6 +9616,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
   <cs:axisTitle>
@@ -7301,8 +10172,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7329,8 +10200,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7410,6 +10281,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9882,7 +13269,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9909,8 +13296,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9990,11 +13377,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10005,11 +13387,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -10021,7 +13398,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10041,9 +13418,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10056,10 +13430,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10099,22 +13473,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65%"/>
-          <a:lumOff val="35%"/>
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65%"/>
             <a:lumOff val="35%"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10219,8 +13594,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75%"/>
-            <a:lumOff val="25%"/>
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10352,19 +13727,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10378,6 +13754,17 @@
         <a:lumOff val="35%"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10398,6 +13785,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11107,6 +15010,75 @@
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>319085</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -11166,6 +15138,848 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="data"/>
+      <sheetName val="range"/>
+      <sheetName val="graft"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="7">
+          <cell r="E7" t="str">
+            <v>GeForce *50 GB/s</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>GeForce *50 Memory (MB)</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>GeForce *50 GFLOPS</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>GeForce *50 Pixel (GP/s)</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>GeForce *50 Texture (GT/s)</v>
+          </cell>
+          <cell r="M7" t="str">
+            <v>GeForce *50 GB/s</v>
+          </cell>
+          <cell r="N7" t="str">
+            <v>GeForce *50 Memory (MB)</v>
+          </cell>
+          <cell r="O7" t="str">
+            <v>GeForce *50 GFLOPS</v>
+          </cell>
+          <cell r="P7" t="str">
+            <v>GeForce *50 Pixel (GP/s)</v>
+          </cell>
+          <cell r="Q7" t="str">
+            <v>GeForce *50 Texture (GT/s)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>39189</v>
+          </cell>
+          <cell r="E8">
+            <v>11.9</v>
+          </cell>
+          <cell r="F8">
+            <v>256</v>
+          </cell>
+          <cell r="G8">
+            <v>28.8</v>
+          </cell>
+          <cell r="H8">
+            <v>1.8</v>
+          </cell>
+          <cell r="I8">
+            <v>3.6</v>
+          </cell>
+          <cell r="L8">
+            <v>39189</v>
+          </cell>
+          <cell r="M8">
+            <v>1</v>
+          </cell>
+          <cell r="N8">
+            <v>1</v>
+          </cell>
+          <cell r="O8">
+            <v>1</v>
+          </cell>
+          <cell r="P8">
+            <v>1</v>
+          </cell>
+          <cell r="Q8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>39658</v>
+          </cell>
+          <cell r="E9">
+            <v>23</v>
+          </cell>
+          <cell r="F9">
+            <v>512</v>
+          </cell>
+          <cell r="G9">
+            <v>134.4</v>
+          </cell>
+          <cell r="H9">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="I9">
+            <v>8.8000000000000007</v>
+          </cell>
+          <cell r="L9">
+            <v>39658</v>
+          </cell>
+          <cell r="M9">
+            <v>1.9327731092436975</v>
+          </cell>
+          <cell r="N9">
+            <v>2</v>
+          </cell>
+          <cell r="O9">
+            <v>4.666666666666667</v>
+          </cell>
+          <cell r="P9">
+            <v>2.4444444444444446</v>
+          </cell>
+          <cell r="Q9">
+            <v>2.4444444444444446</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>40134</v>
+          </cell>
+          <cell r="E10">
+            <v>32</v>
+          </cell>
+          <cell r="F10">
+            <v>512</v>
+          </cell>
+          <cell r="G10">
+            <v>385.9</v>
+          </cell>
+          <cell r="H10">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="I10">
+            <v>17.600000000000001</v>
+          </cell>
+          <cell r="L10">
+            <v>40134</v>
+          </cell>
+          <cell r="M10">
+            <v>2.6890756302521006</v>
+          </cell>
+          <cell r="N10">
+            <v>2</v>
+          </cell>
+          <cell r="O10">
+            <v>13.399305555555554</v>
+          </cell>
+          <cell r="P10">
+            <v>2.4444444444444446</v>
+          </cell>
+          <cell r="Q10">
+            <v>4.8888888888888893</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>40434</v>
+          </cell>
+          <cell r="E11">
+            <v>57.73</v>
+          </cell>
+          <cell r="F11">
+            <v>1024</v>
+          </cell>
+          <cell r="G11">
+            <v>601.29999999999995</v>
+          </cell>
+          <cell r="H11">
+            <v>12.53</v>
+          </cell>
+          <cell r="I11">
+            <v>25.06</v>
+          </cell>
+          <cell r="L11">
+            <v>40434</v>
+          </cell>
+          <cell r="M11">
+            <v>4.8512605042016803</v>
+          </cell>
+          <cell r="N11">
+            <v>4</v>
+          </cell>
+          <cell r="O11">
+            <v>20.878472222222221</v>
+          </cell>
+          <cell r="P11">
+            <v>6.9611111111111104</v>
+          </cell>
+          <cell r="Q11">
+            <v>6.9611111111111104</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>40617</v>
+          </cell>
+          <cell r="E12">
+            <v>98.5</v>
+          </cell>
+          <cell r="F12">
+            <v>1024</v>
+          </cell>
+          <cell r="G12">
+            <v>691.2</v>
+          </cell>
+          <cell r="H12">
+            <v>21.6</v>
+          </cell>
+          <cell r="I12">
+            <v>28.8</v>
+          </cell>
+          <cell r="L12">
+            <v>40617</v>
+          </cell>
+          <cell r="M12">
+            <v>8.2773109243697469</v>
+          </cell>
+          <cell r="N12">
+            <v>4</v>
+          </cell>
+          <cell r="O12">
+            <v>24</v>
+          </cell>
+          <cell r="P12">
+            <v>12</v>
+          </cell>
+          <cell r="Q12">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>41165</v>
+          </cell>
+          <cell r="E13">
+            <v>80</v>
+          </cell>
+          <cell r="F13">
+            <v>1024</v>
+          </cell>
+          <cell r="G13">
+            <v>812.5</v>
+          </cell>
+          <cell r="H13">
+            <v>16.899999999999999</v>
+          </cell>
+          <cell r="I13">
+            <v>33.799999999999997</v>
+          </cell>
+          <cell r="L13">
+            <v>41165</v>
+          </cell>
+          <cell r="M13">
+            <v>6.7226890756302522</v>
+          </cell>
+          <cell r="N13">
+            <v>4</v>
+          </cell>
+          <cell r="O13">
+            <v>28.211805555555554</v>
+          </cell>
+          <cell r="P13">
+            <v>9.3888888888888875</v>
+          </cell>
+          <cell r="Q13">
+            <v>9.3888888888888875</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>41698</v>
+          </cell>
+          <cell r="E14">
+            <v>80.2</v>
+          </cell>
+          <cell r="F14">
+            <v>1024</v>
+          </cell>
+          <cell r="G14">
+            <v>1044</v>
+          </cell>
+          <cell r="H14">
+            <v>16.3</v>
+          </cell>
+          <cell r="I14">
+            <v>32.6</v>
+          </cell>
+          <cell r="L14">
+            <v>41698</v>
+          </cell>
+          <cell r="M14">
+            <v>6.7394957983193278</v>
+          </cell>
+          <cell r="N14">
+            <v>4</v>
+          </cell>
+          <cell r="O14">
+            <v>36.25</v>
+          </cell>
+          <cell r="P14">
+            <v>9.0555555555555554</v>
+          </cell>
+          <cell r="Q14">
+            <v>9.0555555555555554</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>42236</v>
+          </cell>
+          <cell r="E15">
+            <v>106</v>
+          </cell>
+          <cell r="F15">
+            <v>2048</v>
+          </cell>
+          <cell r="G15">
+            <v>1572</v>
+          </cell>
+          <cell r="H15">
+            <v>32.700000000000003</v>
+          </cell>
+          <cell r="I15">
+            <v>49.2</v>
+          </cell>
+          <cell r="L15">
+            <v>42236</v>
+          </cell>
+          <cell r="M15">
+            <v>8.9075630252100844</v>
+          </cell>
+          <cell r="N15">
+            <v>8</v>
+          </cell>
+          <cell r="O15">
+            <v>54.583333333333329</v>
+          </cell>
+          <cell r="P15">
+            <v>18.166666666666668</v>
+          </cell>
+          <cell r="Q15">
+            <v>13.666666666666668</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18" t="str">
+            <v>GeForce *80 GB/s</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>GeForce *80 Memory (MB)</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>GeForce *80 GFLOPS</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>GeForce *80 Pixel (GP/s)</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v>GeForce *80 Texture (GT/s)</v>
+          </cell>
+          <cell r="M18" t="str">
+            <v>GeForce *80 GB/s</v>
+          </cell>
+          <cell r="N18" t="str">
+            <v>GeForce *80 Memory (MB)</v>
+          </cell>
+          <cell r="O18" t="str">
+            <v>GeForce *80 GFLOPS</v>
+          </cell>
+          <cell r="P18" t="str">
+            <v>GeForce *80 Pixel (GP/s)</v>
+          </cell>
+          <cell r="Q18" t="str">
+            <v>GeForce *80 Texture (GT/s)</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>39029</v>
+          </cell>
+          <cell r="E19">
+            <v>86.4</v>
+          </cell>
+          <cell r="F19">
+            <v>768</v>
+          </cell>
+          <cell r="G19">
+            <v>518</v>
+          </cell>
+          <cell r="H19">
+            <v>13.8</v>
+          </cell>
+          <cell r="I19">
+            <v>36.799999999999997</v>
+          </cell>
+          <cell r="L19">
+            <v>39029</v>
+          </cell>
+          <cell r="M19">
+            <v>1</v>
+          </cell>
+          <cell r="N19">
+            <v>1</v>
+          </cell>
+          <cell r="O19">
+            <v>1</v>
+          </cell>
+          <cell r="P19">
+            <v>1</v>
+          </cell>
+          <cell r="Q19">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>39235</v>
+          </cell>
+          <cell r="E20">
+            <v>103.7</v>
+          </cell>
+          <cell r="F20">
+            <v>768</v>
+          </cell>
+          <cell r="G20">
+            <v>576</v>
+          </cell>
+          <cell r="H20">
+            <v>14.7</v>
+          </cell>
+          <cell r="I20">
+            <v>39.200000000000003</v>
+          </cell>
+          <cell r="L20">
+            <v>39235</v>
+          </cell>
+          <cell r="M20">
+            <v>1.2002314814814814</v>
+          </cell>
+          <cell r="N20">
+            <v>1</v>
+          </cell>
+          <cell r="O20">
+            <v>1.111969111969112</v>
+          </cell>
+          <cell r="P20">
+            <v>1.0652173913043477</v>
+          </cell>
+          <cell r="Q20">
+            <v>1.0652173913043479</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>39616</v>
+          </cell>
+          <cell r="E21">
+            <v>141.69999999999999</v>
+          </cell>
+          <cell r="F21">
+            <v>1024</v>
+          </cell>
+          <cell r="G21">
+            <v>933.12</v>
+          </cell>
+          <cell r="H21">
+            <v>19.263999999999999</v>
+          </cell>
+          <cell r="I21">
+            <v>48.16</v>
+          </cell>
+          <cell r="L21">
+            <v>39616</v>
+          </cell>
+          <cell r="M21">
+            <v>1.6400462962962961</v>
+          </cell>
+          <cell r="N21">
+            <v>1.3333333333333333</v>
+          </cell>
+          <cell r="O21">
+            <v>1.8013899613899613</v>
+          </cell>
+          <cell r="P21">
+            <v>1.3959420289855071</v>
+          </cell>
+          <cell r="Q21">
+            <v>1.308695652173913</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>39828</v>
+          </cell>
+          <cell r="E22">
+            <v>159</v>
+          </cell>
+          <cell r="F22">
+            <v>1024</v>
+          </cell>
+          <cell r="G22">
+            <v>1062.72</v>
+          </cell>
+          <cell r="H22">
+            <v>20.736000000000001</v>
+          </cell>
+          <cell r="I22">
+            <v>51.84</v>
+          </cell>
+          <cell r="L22">
+            <v>39828</v>
+          </cell>
+          <cell r="M22">
+            <v>1.8402777777777777</v>
+          </cell>
+          <cell r="N22">
+            <v>1.3333333333333333</v>
+          </cell>
+          <cell r="O22">
+            <v>2.0515830115830118</v>
+          </cell>
+          <cell r="P22">
+            <v>1.5026086956521738</v>
+          </cell>
+          <cell r="Q22">
+            <v>1.4086956521739133</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>40263</v>
+          </cell>
+          <cell r="E23">
+            <v>177.4</v>
+          </cell>
+          <cell r="F23">
+            <v>1536</v>
+          </cell>
+          <cell r="G23">
+            <v>1345</v>
+          </cell>
+          <cell r="H23">
+            <v>33.6</v>
+          </cell>
+          <cell r="I23">
+            <v>42</v>
+          </cell>
+          <cell r="L23">
+            <v>40263</v>
+          </cell>
+          <cell r="M23">
+            <v>2.0532407407407405</v>
+          </cell>
+          <cell r="N23">
+            <v>2</v>
+          </cell>
+          <cell r="O23">
+            <v>2.5965250965250966</v>
+          </cell>
+          <cell r="P23">
+            <v>2.4347826086956523</v>
+          </cell>
+          <cell r="Q23">
+            <v>1.1413043478260871</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>40491</v>
+          </cell>
+          <cell r="E24">
+            <v>192.4</v>
+          </cell>
+          <cell r="F24">
+            <v>1536</v>
+          </cell>
+          <cell r="G24">
+            <v>1581.1</v>
+          </cell>
+          <cell r="H24">
+            <v>37.06</v>
+          </cell>
+          <cell r="I24">
+            <v>49.41</v>
+          </cell>
+          <cell r="L24">
+            <v>40491</v>
+          </cell>
+          <cell r="M24">
+            <v>2.2268518518518516</v>
+          </cell>
+          <cell r="N24">
+            <v>2</v>
+          </cell>
+          <cell r="O24">
+            <v>3.0523166023166022</v>
+          </cell>
+          <cell r="P24">
+            <v>2.6855072463768117</v>
+          </cell>
+          <cell r="Q24">
+            <v>1.3426630434782609</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>40990</v>
+          </cell>
+          <cell r="E25">
+            <v>192.256</v>
+          </cell>
+          <cell r="F25">
+            <v>2048</v>
+          </cell>
+          <cell r="G25">
+            <v>3090.4</v>
+          </cell>
+          <cell r="H25">
+            <v>32.200000000000003</v>
+          </cell>
+          <cell r="I25">
+            <v>128.80000000000001</v>
+          </cell>
+          <cell r="L25">
+            <v>40990</v>
+          </cell>
+          <cell r="M25">
+            <v>2.2251851851851852</v>
+          </cell>
+          <cell r="N25">
+            <v>2.6666666666666665</v>
+          </cell>
+          <cell r="O25">
+            <v>5.9660231660231666</v>
+          </cell>
+          <cell r="P25">
+            <v>2.3333333333333335</v>
+          </cell>
+          <cell r="Q25">
+            <v>3.5000000000000004</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>41417</v>
+          </cell>
+          <cell r="E26">
+            <v>288</v>
+          </cell>
+          <cell r="F26">
+            <v>3072</v>
+          </cell>
+          <cell r="G26">
+            <v>3977</v>
+          </cell>
+          <cell r="H26">
+            <v>41.4</v>
+          </cell>
+          <cell r="I26">
+            <v>166</v>
+          </cell>
+          <cell r="L26">
+            <v>41417</v>
+          </cell>
+          <cell r="M26">
+            <v>3.333333333333333</v>
+          </cell>
+          <cell r="N26">
+            <v>4</v>
+          </cell>
+          <cell r="O26">
+            <v>7.6776061776061777</v>
+          </cell>
+          <cell r="P26">
+            <v>2.9999999999999996</v>
+          </cell>
+          <cell r="Q26">
+            <v>4.5108695652173916</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>41585</v>
+          </cell>
+          <cell r="E27">
+            <v>336</v>
+          </cell>
+          <cell r="F27">
+            <v>3072</v>
+          </cell>
+          <cell r="G27">
+            <v>5046</v>
+          </cell>
+          <cell r="H27">
+            <v>42</v>
+          </cell>
+          <cell r="I27">
+            <v>210</v>
+          </cell>
+          <cell r="L27">
+            <v>41585</v>
+          </cell>
+          <cell r="M27">
+            <v>3.8888888888888888</v>
+          </cell>
+          <cell r="N27">
+            <v>4</v>
+          </cell>
+          <cell r="O27">
+            <v>9.7413127413127416</v>
+          </cell>
+          <cell r="P27">
+            <v>3.043478260869565</v>
+          </cell>
+          <cell r="Q27">
+            <v>5.7065217391304355</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>41900</v>
+          </cell>
+          <cell r="E28">
+            <v>224</v>
+          </cell>
+          <cell r="F28">
+            <v>4096</v>
+          </cell>
+          <cell r="G28">
+            <v>4612</v>
+          </cell>
+          <cell r="H28">
+            <v>72.099999999999994</v>
+          </cell>
+          <cell r="I28">
+            <v>144</v>
+          </cell>
+          <cell r="L28">
+            <v>41900</v>
+          </cell>
+          <cell r="M28">
+            <v>2.5925925925925926</v>
+          </cell>
+          <cell r="N28">
+            <v>5.333333333333333</v>
+          </cell>
+          <cell r="O28">
+            <v>8.903474903474903</v>
+          </cell>
+          <cell r="P28">
+            <v>5.22463768115942</v>
+          </cell>
+          <cell r="Q28">
+            <v>3.9130434782608701</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>42157</v>
+          </cell>
+          <cell r="E29">
+            <v>336</v>
+          </cell>
+          <cell r="F29">
+            <v>6144</v>
+          </cell>
+          <cell r="G29">
+            <v>5632</v>
+          </cell>
+          <cell r="H29">
+            <v>96</v>
+          </cell>
+          <cell r="I29">
+            <v>176</v>
+          </cell>
+          <cell r="L29">
+            <v>42157</v>
+          </cell>
+          <cell r="M29">
+            <v>3.8888888888888888</v>
+          </cell>
+          <cell r="N29">
+            <v>8</v>
+          </cell>
+          <cell r="O29">
+            <v>10.872586872586872</v>
+          </cell>
+          <cell r="P29">
+            <v>6.9565217391304346</v>
+          </cell>
+          <cell r="Q29">
+            <v>4.7826086956521747</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>42517</v>
+          </cell>
+          <cell r="E30">
+            <v>320</v>
+          </cell>
+          <cell r="F30">
+            <v>8192</v>
+          </cell>
+          <cell r="G30">
+            <v>8228</v>
+          </cell>
+          <cell r="H30">
+            <v>102.8</v>
+          </cell>
+          <cell r="I30">
+            <v>257.10000000000002</v>
+          </cell>
+          <cell r="L30">
+            <v>42517</v>
+          </cell>
+          <cell r="M30">
+            <v>3.7037037037037033</v>
+          </cell>
+          <cell r="N30">
+            <v>10.666666666666666</v>
+          </cell>
+          <cell r="O30">
+            <v>15.884169884169884</v>
+          </cell>
+          <cell r="P30">
+            <v>7.4492753623188399</v>
+          </cell>
+          <cell r="Q30">
+            <v>6.9864130434782616</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14326,7 +19140,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
@@ -14430,11 +19244,11 @@
         <v>2010-06-04</v>
       </c>
       <c r="O8">
-        <f>K8/I8</f>
+        <f t="shared" ref="O8:O14" si="0">K8/I8</f>
         <v>6.5535999999999994</v>
       </c>
       <c r="P8">
-        <f>L8/I8</f>
+        <f t="shared" ref="P8:P14" si="1">L8/I8</f>
         <v>8.7381333333333338</v>
       </c>
     </row>
@@ -14464,11 +19278,11 @@
         <v>99</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" ref="K9:K14" si="0">F9*1024*1024</f>
+        <f t="shared" ref="K9:K14" si="2">F9*1024*1024</f>
         <v>6710886.4000000004</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L14" si="1">G9*1024*1024</f>
+        <f t="shared" ref="L9:L14" si="3">G9*1024*1024</f>
         <v>10066329.6</v>
       </c>
       <c r="M9" t="s">
@@ -14478,11 +19292,11 @@
         <v>2011-05-02</v>
       </c>
       <c r="O9">
-        <f>K9/I9</f>
+        <f t="shared" si="0"/>
         <v>17.476266666666668</v>
       </c>
       <c r="P9">
-        <f>L9/I9</f>
+        <f t="shared" si="1"/>
         <v>26.214399999999998</v>
       </c>
     </row>
@@ -14512,11 +19326,11 @@
         <v>100</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6710886.4000000004</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16609443.84</v>
       </c>
       <c r="M10" t="s">
@@ -14526,11 +19340,11 @@
         <v>2012-05-29</v>
       </c>
       <c r="O10">
-        <f>K10/I10</f>
+        <f t="shared" si="0"/>
         <v>7.2817777777777781</v>
       </c>
       <c r="P10">
-        <f>L10/I10</f>
+        <f t="shared" si="1"/>
         <v>18.022400000000001</v>
       </c>
     </row>
@@ -14560,11 +19374,11 @@
         <v>101</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13421772.800000001</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51380224</v>
       </c>
       <c r="M11" t="s">
@@ -14574,11 +19388,11 @@
         <v>2013-04-27</v>
       </c>
       <c r="O11">
-        <f>K11/I11</f>
+        <f t="shared" si="0"/>
         <v>6.4726913580246919</v>
       </c>
       <c r="P11">
-        <f>L11/I11</f>
+        <f t="shared" si="1"/>
         <v>24.778271604938272</v>
       </c>
     </row>
@@ -14608,11 +19422,11 @@
         <v>101</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15623782.4</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>107374182.40000001</v>
       </c>
       <c r="M12" t="s">
@@ -14622,11 +19436,11 @@
         <v>2014-04-11</v>
       </c>
       <c r="O12">
-        <f>K12/I12</f>
+        <f t="shared" si="0"/>
         <v>7.5346172839506176</v>
       </c>
       <c r="P12">
-        <f>L12/I12</f>
+        <f t="shared" si="1"/>
         <v>51.781530864197535</v>
       </c>
     </row>
@@ -14656,11 +19470,11 @@
         <v>102</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26088570.879999999</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>220200960</v>
       </c>
       <c r="M13" t="s">
@@ -14670,11 +19484,11 @@
         <v>2015-04-10</v>
       </c>
       <c r="O13">
-        <f>K13/I13</f>
+        <f t="shared" si="0"/>
         <v>7.0769777777777776</v>
       </c>
       <c r="P13">
-        <f>L13/I13</f>
+        <f t="shared" si="1"/>
         <v>59.733333333333334</v>
       </c>
     </row>
@@ -14704,11 +19518,11 @@
         <v>102</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30094131.199999999</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>278082355.19999999</v>
       </c>
       <c r="M14" t="s">
@@ -14718,11 +19532,11 @@
         <v>2016-03-11</v>
       </c>
       <c r="O14">
-        <f>K14/I14</f>
+        <f t="shared" si="0"/>
         <v>8.1635555555555559</v>
       </c>
       <c r="P14">
-        <f>L14/I14</f>
+        <f t="shared" si="1"/>
         <v>75.434666666666658</v>
       </c>
     </row>
@@ -14835,22 +19649,22 @@
         <v>128</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" ref="L22:L30" si="2">F22*1024*1024</f>
+        <f t="shared" ref="L22:L30" si="4">F22*1024*1024</f>
         <v>557842.43200000003</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" ref="M22:M30" si="3">G22*1024*1024</f>
+        <f t="shared" ref="M22:M30" si="5">G22*1024*1024</f>
         <v>0</v>
       </c>
       <c r="N22" s="3" t="d">
         <v>2008-07-11</v>
       </c>
       <c r="O22">
-        <f t="shared" ref="O22:O30" si="4">L22/I22</f>
+        <f t="shared" ref="O22:O30" si="6">L22/I22</f>
         <v>3.6317866666666667</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P30" si="5">M22/I22</f>
+        <f t="shared" ref="P22:P30" si="7">M22/I22</f>
         <v>0</v>
       </c>
     </row>
@@ -14883,22 +19697,22 @@
         <v>256</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1677721.6000000001</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1258291.2</v>
       </c>
       <c r="N23" s="3" t="d">
         <v>2009-06-19</v>
       </c>
       <c r="O23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.922666666666668</v>
       </c>
       <c r="P23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.1920000000000002</v>
       </c>
     </row>
@@ -14931,22 +19745,22 @@
         <v>512</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3355443.2000000002</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2097152</v>
       </c>
       <c r="N24" s="3" t="d">
         <v>2010-06-24</v>
       </c>
       <c r="O24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.461333333333334</v>
       </c>
       <c r="P24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4133333333333336</v>
       </c>
     </row>
@@ -14979,22 +19793,22 @@
         <v>512</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6710886.4000000004</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16777216</v>
       </c>
       <c r="N25" s="3" t="d">
         <v>2011-10-04</v>
       </c>
       <c r="O25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.922666666666668</v>
       </c>
       <c r="P25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>27.306666666666668</v>
       </c>
     </row>
@@ -15027,22 +19841,22 @@
         <v>1024</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8912896</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26738688</v>
       </c>
       <c r="N26" s="3" t="d">
         <v>2012-09-12</v>
       </c>
       <c r="O26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.259154929577464</v>
       </c>
       <c r="P26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>36.777464788732395</v>
       </c>
     </row>
@@ -15078,22 +19892,22 @@
         <v>1024</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13421772.800000001</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80530636.799999997</v>
       </c>
       <c r="N27" s="3" t="d">
         <v>2013-09-20</v>
       </c>
       <c r="O27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18.460845070422536</v>
       </c>
       <c r="P27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>110.7650704225352</v>
       </c>
     </row>
@@ -15129,22 +19943,22 @@
         <v>1024</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13421772.800000001</v>
       </c>
       <c r="M28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>120795955.2</v>
       </c>
       <c r="N28" s="3" t="d">
         <v>2014-09-19</v>
       </c>
       <c r="O28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.4726913580246919</v>
       </c>
       <c r="P28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>58.254222222222225</v>
       </c>
     </row>
@@ -15180,22 +19994,22 @@
         <v>2048</v>
       </c>
       <c r="L29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26843545.600000001</v>
       </c>
       <c r="M29" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>262144000</v>
       </c>
       <c r="N29" s="3" t="d">
         <v>2015-09-25</v>
       </c>
       <c r="O29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.945382716049384</v>
       </c>
       <c r="P29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>126.41975308641975</v>
       </c>
     </row>
@@ -15231,22 +20045,22 @@
         <v>3072</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26843545.600000001</v>
       </c>
       <c r="M30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>362387865.60000002</v>
       </c>
       <c r="N30" s="3" t="d">
         <v>2016-09-16</v>
       </c>
       <c r="O30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.945382716049384</v>
       </c>
       <c r="P30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>174.76266666666669</v>
       </c>
     </row>
@@ -15280,6 +20094,1132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:Q30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="d">
+        <v>2007-04-17</v>
+      </c>
+      <c r="E8">
+        <v>11.9</v>
+      </c>
+      <c r="F8">
+        <v>256</v>
+      </c>
+      <c r="G8" s="5">
+        <v>28.8</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="3" t="d">
+        <v>2007-04-17</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="d">
+        <v>2008-07-29</v>
+      </c>
+      <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>512</v>
+      </c>
+      <c r="G9" s="5">
+        <v>134.4</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I9" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="3" t="d">
+        <v>2008-07-29</v>
+      </c>
+      <c r="M9" s="6">
+        <f>E9/E$8</f>
+        <v>1.9327731092436975</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" ref="N9:Q15" si="0">F9/F$8</f>
+        <v>2</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4444444444444446</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="d">
+        <v>2009-11-17</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
+        <v>512</v>
+      </c>
+      <c r="G10" s="5">
+        <v>385.9</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I10" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="3" t="d">
+        <v>2009-11-17</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" ref="M10:M15" si="1">E10/E$8</f>
+        <v>2.6890756302521006</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="0"/>
+        <v>13.399305555555554</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="0"/>
+        <v>4.8888888888888893</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3" t="d">
+        <v>2010-09-13</v>
+      </c>
+      <c r="E11">
+        <v>57.73</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G11" s="5">
+        <v>601.29999999999995</v>
+      </c>
+      <c r="H11" s="5">
+        <v>12.53</v>
+      </c>
+      <c r="I11" s="5">
+        <v>25.06</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="3" t="d">
+        <v>2010-09-13</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="1"/>
+        <v>4.8512605042016803</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="0"/>
+        <v>20.878472222222221</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="0"/>
+        <v>6.9611111111111104</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="0"/>
+        <v>6.9611111111111104</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="d">
+        <v>2011-03-15</v>
+      </c>
+      <c r="E12">
+        <v>98.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G12" s="5">
+        <v>691.2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>21.6</v>
+      </c>
+      <c r="I12" s="5">
+        <v>28.8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="3" t="d">
+        <v>2011-03-15</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="1"/>
+        <v>8.2773109243697469</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3" t="d">
+        <v>2012-09-13</v>
+      </c>
+      <c r="E13">
+        <v>80</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G13" s="5">
+        <v>812.5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I13" s="5">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="3" t="d">
+        <v>2012-09-13</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="1"/>
+        <v>6.7226890756302522</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="0"/>
+        <v>28.211805555555554</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="0"/>
+        <v>9.3888888888888875</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="0"/>
+        <v>9.3888888888888875</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="d">
+        <v>2014-02-28</v>
+      </c>
+      <c r="E14">
+        <v>80.2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1044</v>
+      </c>
+      <c r="H14" s="5">
+        <v>16.3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="3" t="d">
+        <v>2014-02-28</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="1"/>
+        <v>6.7394957983193278</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="0"/>
+        <v>36.25</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0555555555555554</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0555555555555554</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="d">
+        <v>2015-08-20</v>
+      </c>
+      <c r="E15">
+        <v>106</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2048</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1572</v>
+      </c>
+      <c r="H15" s="5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="I15" s="5">
+        <v>49.2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="3" t="d">
+        <v>2015-08-20</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="1"/>
+        <v>8.9075630252100844</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="0"/>
+        <v>54.583333333333329</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="0"/>
+        <v>18.166666666666668</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" si="0"/>
+        <v>13.666666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" t="s">
+        <v>148</v>
+      </c>
+      <c r="P18" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="d">
+        <v>2006-11-08</v>
+      </c>
+      <c r="E19">
+        <v>86.4</v>
+      </c>
+      <c r="F19">
+        <v>768</v>
+      </c>
+      <c r="G19">
+        <v>518</v>
+      </c>
+      <c r="H19">
+        <v>13.8</v>
+      </c>
+      <c r="I19" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="3" t="d">
+        <v>2006-11-08</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="d">
+        <v>2007-06-02</v>
+      </c>
+      <c r="E20">
+        <v>103.7</v>
+      </c>
+      <c r="F20">
+        <v>768</v>
+      </c>
+      <c r="G20">
+        <v>576</v>
+      </c>
+      <c r="H20">
+        <v>14.7</v>
+      </c>
+      <c r="I20" s="5">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="3" t="d">
+        <v>2007-06-02</v>
+      </c>
+      <c r="M20" s="6">
+        <f>E20/E$19</f>
+        <v>1.2002314814814814</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" ref="N20:Q30" si="2">F20/F$19</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="2"/>
+        <v>1.111969111969112</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0652173913043477</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0652173913043479</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="d">
+        <v>2008-06-17</v>
+      </c>
+      <c r="E21">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="F21">
+        <v>1024</v>
+      </c>
+      <c r="G21">
+        <v>933.12</v>
+      </c>
+      <c r="H21">
+        <v>19.263999999999999</v>
+      </c>
+      <c r="I21" s="5">
+        <v>48.16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="3" t="d">
+        <v>2008-06-17</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" ref="M21:M30" si="3">E21/E$19</f>
+        <v>1.6400462962962961</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="2"/>
+        <v>1.8013899613899613</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3959420289855071</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" si="2"/>
+        <v>1.308695652173913</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="d">
+        <v>2009-01-15</v>
+      </c>
+      <c r="E22">
+        <v>159</v>
+      </c>
+      <c r="F22">
+        <v>1024</v>
+      </c>
+      <c r="G22">
+        <v>1062.72</v>
+      </c>
+      <c r="H22">
+        <v>20.736000000000001</v>
+      </c>
+      <c r="I22" s="5">
+        <v>51.84</v>
+      </c>
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="3" t="d">
+        <v>2009-01-15</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="3"/>
+        <v>1.8402777777777777</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0515830115830118</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5026086956521738</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4086956521739133</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="d">
+        <v>2010-03-26</v>
+      </c>
+      <c r="E23">
+        <v>177.4</v>
+      </c>
+      <c r="F23">
+        <v>1536</v>
+      </c>
+      <c r="G23">
+        <v>1345</v>
+      </c>
+      <c r="H23">
+        <v>33.6</v>
+      </c>
+      <c r="I23" s="5">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="3" t="d">
+        <v>2010-03-26</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0532407407407405</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="2"/>
+        <v>2.5965250965250966</v>
+      </c>
+      <c r="P23" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4347826086956523</v>
+      </c>
+      <c r="Q23" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1413043478260871</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3" t="d">
+        <v>2010-11-09</v>
+      </c>
+      <c r="E24">
+        <v>192.4</v>
+      </c>
+      <c r="F24">
+        <v>1536</v>
+      </c>
+      <c r="G24">
+        <v>1581.1</v>
+      </c>
+      <c r="H24">
+        <v>37.06</v>
+      </c>
+      <c r="I24" s="5">
+        <v>49.41</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="3" t="d">
+        <v>2010-11-09</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2268518518518516</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="2"/>
+        <v>3.0523166023166022</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="2"/>
+        <v>2.6855072463768117</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3426630434782609</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3" t="d">
+        <v>2012-03-22</v>
+      </c>
+      <c r="E25">
+        <v>192.256</v>
+      </c>
+      <c r="F25">
+        <v>2048</v>
+      </c>
+      <c r="G25">
+        <v>3090.4</v>
+      </c>
+      <c r="H25">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="I25" s="5">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="3" t="d">
+        <v>2012-03-22</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2251851851851852</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="2"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="2"/>
+        <v>5.9660231660231666</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="Q25" s="6">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3" t="d">
+        <v>2013-05-23</v>
+      </c>
+      <c r="E26">
+        <v>288</v>
+      </c>
+      <c r="F26">
+        <v>3072</v>
+      </c>
+      <c r="G26">
+        <v>3977</v>
+      </c>
+      <c r="H26">
+        <v>41.4</v>
+      </c>
+      <c r="I26" s="5">
+        <v>166</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="3" t="d">
+        <v>2013-05-23</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="3"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="2"/>
+        <v>7.6776061776061777</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="Q26" s="6">
+        <f t="shared" si="2"/>
+        <v>4.5108695652173916</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3" t="d">
+        <v>2013-11-07</v>
+      </c>
+      <c r="E27">
+        <v>336</v>
+      </c>
+      <c r="F27">
+        <v>3072</v>
+      </c>
+      <c r="G27">
+        <v>5046</v>
+      </c>
+      <c r="H27">
+        <v>42</v>
+      </c>
+      <c r="I27" s="5">
+        <v>210</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="3" t="d">
+        <v>2013-11-07</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="3"/>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="2"/>
+        <v>9.7413127413127416</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="2"/>
+        <v>3.043478260869565</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7065217391304355</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3" t="d">
+        <v>2014-09-18</v>
+      </c>
+      <c r="E28">
+        <v>224</v>
+      </c>
+      <c r="F28">
+        <v>4096</v>
+      </c>
+      <c r="G28">
+        <v>4612</v>
+      </c>
+      <c r="H28">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I28" s="5">
+        <v>144</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="3" t="d">
+        <v>2014-09-18</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5925925925925926</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="2"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="2"/>
+        <v>8.903474903474903</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" si="2"/>
+        <v>5.22463768115942</v>
+      </c>
+      <c r="Q28" s="6">
+        <f t="shared" si="2"/>
+        <v>3.9130434782608701</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3" t="d">
+        <v>2015-06-02</v>
+      </c>
+      <c r="E29">
+        <v>336</v>
+      </c>
+      <c r="F29">
+        <v>6144</v>
+      </c>
+      <c r="G29">
+        <v>5632</v>
+      </c>
+      <c r="H29">
+        <v>96</v>
+      </c>
+      <c r="I29" s="5">
+        <v>176</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="3" t="d">
+        <v>2015-06-02</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="3"/>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="2"/>
+        <v>10.872586872586872</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" si="2"/>
+        <v>6.9565217391304346</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="2"/>
+        <v>4.7826086956521747</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3" t="d">
+        <v>2016-05-27</v>
+      </c>
+      <c r="E30">
+        <v>320</v>
+      </c>
+      <c r="F30">
+        <v>8192</v>
+      </c>
+      <c r="G30">
+        <v>8228</v>
+      </c>
+      <c r="H30">
+        <v>102.8</v>
+      </c>
+      <c r="I30" s="5">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="3" t="d">
+        <v>2016-05-27</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="3"/>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="2"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="2"/>
+        <v>15.884169884169884</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" si="2"/>
+        <v>7.4492753623188399</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="2"/>
+        <v>6.9864130434782616</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="L17:Q17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/GPU database.xlsx
+++ b/doc/GPU database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="446" uniqueCount="175">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="452" uniqueCount="181">
   <si>
     <t>PS4 bandwidth</t>
   </si>
@@ -600,6 +600,24 @@
   <si>
     <t>Printing standard</t>
   </si>
+  <si>
+    <t>dpi</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>1080p at 24"</t>
+  </si>
+  <si>
+    <t>1440p at 27"</t>
+  </si>
+  <si>
+    <t>720p at 21"</t>
+  </si>
+  <si>
+    <t>4K at 27"</t>
+  </si>
 </sst>
 </file>
 
@@ -666,10 +684,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,7 +750,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1406,11 +1423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1115018224"/>
-        <c:axId val="1115019312"/>
+        <c:axId val="1050822080"/>
+        <c:axId val="1160718816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1115018224"/>
+        <c:axId val="1050822080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42600"/>
@@ -1469,13 +1486,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115019312"/>
+        <c:crossAx val="1160718816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1115019312"/>
+        <c:axId val="1160718816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -1533,7 +1550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115018224"/>
+        <c:crossAx val="1050822080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1547,7 +1564,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2300,11 +2316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1174514256"/>
-        <c:axId val="1174516432"/>
+        <c:axId val="1162592928"/>
+        <c:axId val="1162586400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1174514256"/>
+        <c:axId val="1162592928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42750"/>
@@ -2344,7 +2360,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2363,13 +2379,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1174516432"/>
+        <c:crossAx val="1162586400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1174516432"/>
+        <c:axId val="1162586400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,7 +2442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1174514256"/>
+        <c:crossAx val="1162592928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3188,11 +3204,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="881200384"/>
-        <c:axId val="881210176"/>
+        <c:axId val="1162586944"/>
+        <c:axId val="1162597824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="881200384"/>
+        <c:axId val="1162586944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42750"/>
@@ -3232,7 +3248,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3251,13 +3267,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881210176"/>
+        <c:crossAx val="1162597824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="881210176"/>
+        <c:axId val="1162597824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3314,7 +3330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881200384"/>
+        <c:crossAx val="1162586944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3446,7 +3462,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4580,11 +4595,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1113203920"/>
-        <c:axId val="1113203376"/>
+        <c:axId val="1162599456"/>
+        <c:axId val="1162584224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1113203920"/>
+        <c:axId val="1162599456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42500"/>
@@ -4643,12 +4658,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113203376"/>
+        <c:crossAx val="1162584224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1113203376"/>
+        <c:axId val="1162584224"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -4707,7 +4722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113203920"/>
+        <c:crossAx val="1162599456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4721,7 +4736,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4831,7 +4845,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5953,11 +5966,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1113194128"/>
-        <c:axId val="1113201200"/>
+        <c:axId val="1162587488"/>
+        <c:axId val="1162593472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1113194128"/>
+        <c:axId val="1162587488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42750"/>
@@ -6016,12 +6029,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113201200"/>
+        <c:crossAx val="1162593472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1113201200"/>
+        <c:axId val="1162593472"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -6080,7 +6093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113194128"/>
+        <c:crossAx val="1162587488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6094,7 +6107,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6430,11 +6442,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1162222208"/>
-        <c:axId val="1162221120"/>
+        <c:axId val="1162595104"/>
+        <c:axId val="1162588576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1162222208"/>
+        <c:axId val="1162595104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6476,7 +6488,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162221120"/>
+        <c:crossAx val="1162588576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6484,7 +6496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162221120"/>
+        <c:axId val="1162588576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6535,7 +6547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162222208"/>
+        <c:crossAx val="1162595104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7265,11 +7277,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1162216224"/>
-        <c:axId val="1162214048"/>
+        <c:axId val="1162589664"/>
+        <c:axId val="1162590208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1162216224"/>
+        <c:axId val="1162589664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7312,7 +7324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162214048"/>
+        <c:crossAx val="1162590208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7320,7 +7332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162214048"/>
+        <c:axId val="1162590208"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -7374,7 +7386,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162216224"/>
+        <c:crossAx val="1162589664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7525,7 +7537,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8243,11 +8254,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1113197936"/>
-        <c:axId val="1113191408"/>
+        <c:axId val="1160716640"/>
+        <c:axId val="1160718272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1113197936"/>
+        <c:axId val="1160716640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42600"/>
@@ -8306,13 +8317,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113191408"/>
+        <c:crossAx val="1160718272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1113191408"/>
+        <c:axId val="1160718272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8369,7 +8380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113197936"/>
+        <c:crossAx val="1160716640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8383,7 +8394,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8506,7 +8516,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8774,11 +8783,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1113191952"/>
-        <c:axId val="1113193584"/>
+        <c:axId val="1160709024"/>
+        <c:axId val="1160717184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1113191952"/>
+        <c:axId val="1160709024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42300"/>
@@ -8837,13 +8846,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113193584"/>
+        <c:crossAx val="1160717184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1113193584"/>
+        <c:axId val="1160717184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -8901,7 +8910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113191952"/>
+        <c:crossAx val="1160709024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8915,7 +8924,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9038,7 +9046,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9636,11 +9643,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1113204464"/>
-        <c:axId val="1113206096"/>
+        <c:axId val="1160709568"/>
+        <c:axId val="1160713920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1113204464"/>
+        <c:axId val="1160709568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42250"/>
@@ -9699,13 +9706,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113206096"/>
+        <c:crossAx val="1160713920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1113206096"/>
+        <c:axId val="1160713920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9762,7 +9769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113204464"/>
+        <c:crossAx val="1160709568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9776,7 +9783,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10150,11 +10156,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1113202832"/>
-        <c:axId val="1113193040"/>
+        <c:axId val="1160711744"/>
+        <c:axId val="1160720992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1113202832"/>
+        <c:axId val="1160711744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42500"/>
@@ -10213,13 +10219,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113193040"/>
+        <c:crossAx val="1160720992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1113193040"/>
+        <c:axId val="1160720992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10276,7 +10282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113202832"/>
+        <c:crossAx val="1160711744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10910,11 +10916,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1113190864"/>
-        <c:axId val="1113195216"/>
+        <c:axId val="1160715552"/>
+        <c:axId val="1160712832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1113190864"/>
+        <c:axId val="1160715552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42750"/>
@@ -10973,13 +10979,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113195216"/>
+        <c:crossAx val="1160712832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1113195216"/>
+        <c:axId val="1160712832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -11038,7 +11044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113190864"/>
+        <c:crossAx val="1160715552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11494,11 +11500,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1287799744"/>
-        <c:axId val="1287802464"/>
+        <c:axId val="1160721536"/>
+        <c:axId val="1160722080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1287799744"/>
+        <c:axId val="1160721536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42750"/>
@@ -11538,7 +11544,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -11557,13 +11563,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1287802464"/>
+        <c:crossAx val="1160722080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1287802464"/>
+        <c:axId val="1160722080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11620,7 +11626,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1287799744"/>
+        <c:crossAx val="1160721536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12354,11 +12360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1167005856"/>
-        <c:axId val="1167003680"/>
+        <c:axId val="1160707936"/>
+        <c:axId val="1160708480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1167005856"/>
+        <c:axId val="1160707936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42750"/>
@@ -12398,7 +12404,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -12417,13 +12423,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167003680"/>
+        <c:crossAx val="1160708480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1167003680"/>
+        <c:axId val="1160708480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12480,7 +12486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167005856"/>
+        <c:crossAx val="1160707936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13239,11 +13245,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1174518064"/>
-        <c:axId val="1174513712"/>
+        <c:axId val="1162596736"/>
+        <c:axId val="1162591840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1174518064"/>
+        <c:axId val="1162596736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42750"/>
@@ -13283,7 +13289,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -13302,13 +13308,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1174513712"/>
+        <c:crossAx val="1162591840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1174513712"/>
+        <c:axId val="1162591840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13365,7 +13371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1174518064"/>
+        <c:crossAx val="1162596736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -26265,7 +26271,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8:F14"/>
     </sheetView>
   </sheetViews>
@@ -27473,10 +27479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:T54"/>
+  <dimension ref="B3:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27498,6 +27504,14 @@
     <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N3" t="s">
+        <v>175</v>
+      </c>
+    </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>81</v>
@@ -27522,6 +27536,12 @@
       </c>
       <c r="I4" t="s">
         <v>151</v>
+      </c>
+      <c r="M4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -27551,6 +27571,12 @@
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="3"/>
+      <c r="M5" t="s">
+        <v>178</v>
+      </c>
+      <c r="N5">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -27579,6 +27605,12 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="3"/>
+      <c r="M6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6">
+        <v>92</v>
+      </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -27607,6 +27639,9 @@
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="3"/>
+      <c r="M7" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -27790,30 +27825,30 @@
       <c r="K15" s="3" t="d">
         <v>2009-06-19</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f>F15/I5/I5</f>
         <v>61.624301193755741</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <f>$F15/M$13/M$13</f>
         <v>41.943040000000003</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <f>$F15/N$13/N$13</f>
         <v>26.843545600000002</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <f>$F15/O$13/O$13</f>
         <v>18.641351111111113</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="9">
         <f>$F15/P$13/P$13</f>
         <v>13.695686530612246</v>
       </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F16">
@@ -27823,30 +27858,30 @@
       <c r="K16" s="3" t="d">
         <v>2010-06-24</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <f t="shared" ref="L16:L22" si="1">F16/I6/I6</f>
         <v>31.572915804132638</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <f t="shared" ref="M16:P22" si="2">$F16/M$13/M$13</f>
         <v>83.886080000000007</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="9">
         <f t="shared" si="2"/>
         <v>53.687091200000005</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="9">
         <f t="shared" si="2"/>
         <v>37.282702222222227</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="9">
         <f t="shared" si="2"/>
         <v>27.391373061224492</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F17">
@@ -27856,30 +27891,30 @@
       <c r="K17" s="3" t="d">
         <v>2011-10-04</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="9">
         <f t="shared" si="1"/>
         <v>63.145831608265276</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <f t="shared" si="2"/>
         <v>167.77216000000001</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="9">
         <f t="shared" si="2"/>
         <v>107.37418240000001</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="9">
         <f t="shared" si="2"/>
         <v>74.565404444444454</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="9">
         <f t="shared" si="2"/>
         <v>54.782746122448984</v>
       </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
     </row>
     <row r="18" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F18">
@@ -27889,30 +27924,30 @@
       <c r="K18" s="3" t="d">
         <v>2012-09-12</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <f t="shared" si="1"/>
         <v>83.865557604727314</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <f t="shared" si="2"/>
         <v>222.82240000000002</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="9">
         <f t="shared" si="2"/>
         <v>142.606336</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="9">
         <f t="shared" si="2"/>
         <v>99.032177777777775</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="9">
         <f t="shared" si="2"/>
         <v>72.758334693877543</v>
       </c>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F19">
@@ -27922,30 +27957,30 @@
       <c r="K19" s="3" t="d">
         <v>2013-09-20</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="9">
         <f t="shared" si="1"/>
         <v>126.29166321653055</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <f t="shared" si="2"/>
         <v>335.54432000000003</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <f t="shared" si="2"/>
         <v>214.74836480000002</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="9">
         <f t="shared" si="2"/>
         <v>149.13080888888891</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="9">
         <f t="shared" si="2"/>
         <v>109.56549224489797</v>
       </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F20">
@@ -27955,30 +27990,30 @@
       <c r="K20" s="3" t="d">
         <v>2014-09-19</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <f t="shared" si="1"/>
         <v>83.468217237455008</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <f t="shared" si="2"/>
         <v>335.54432000000003</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="9">
         <f t="shared" si="2"/>
         <v>214.74836480000002</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="9">
         <f t="shared" si="2"/>
         <v>149.13080888888891</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="9">
         <f t="shared" si="2"/>
         <v>109.56549224489797</v>
       </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
     </row>
     <row r="21" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F21">
@@ -27988,30 +28023,30 @@
       <c r="K21" s="3" t="d">
         <v>2015-09-25</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="9">
         <f t="shared" si="1"/>
         <v>166.93643447491002</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="9">
         <f t="shared" si="2"/>
         <v>671.08864000000005</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="9">
         <f t="shared" si="2"/>
         <v>429.49672960000004</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="9">
         <f t="shared" si="2"/>
         <v>298.26161777777781</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="9">
         <f t="shared" si="2"/>
         <v>219.13098448979594</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
     </row>
     <row r="22" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F22">
@@ -28021,30 +28056,30 @@
       <c r="K22" s="3" t="d">
         <v>2016-09-16</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <f t="shared" si="1"/>
         <v>166.93643447491002</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="9">
         <f t="shared" si="2"/>
         <v>671.08864000000005</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="9">
         <f t="shared" si="2"/>
         <v>429.49672960000004</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="9">
         <f t="shared" si="2"/>
         <v>298.26161777777781</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="9">
         <f t="shared" si="2"/>
         <v>219.13098448979594</v>
       </c>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.25">
       <c r="M23">
@@ -28088,23 +28123,23 @@
       <c r="K25" s="3" t="d">
         <v>2009-06-19</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <f>F25/G$5</f>
         <v>8.1920000000000002</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="9">
         <f>$L25/M$23*$I5</f>
         <v>6.7584000000000009</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="9">
         <f t="shared" ref="N25:P25" si="3">$L25/N$23*$I5</f>
         <v>5.40672</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="9">
         <f t="shared" si="3"/>
         <v>4.5056000000000003</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="9">
         <f t="shared" si="3"/>
         <v>3.8619428571428571</v>
       </c>
@@ -28117,52 +28152,52 @@
       <c r="K26" s="3" t="d">
         <v>2010-06-24</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="9">
         <f t="shared" ref="L26:L32" si="4">F26/G6</f>
         <v>3.4133333333333336</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="9">
         <f>$L26/M$23*$I6</f>
         <v>5.5637333333333334</v>
       </c>
-      <c r="N26" s="10">
-        <f t="shared" ref="M26:P26" si="5">$L26/N$23*$I6</f>
+      <c r="N26" s="9">
+        <f t="shared" ref="N26:P26" si="5">$L26/N$23*$I6</f>
         <v>4.4509866666666671</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="9">
         <f t="shared" si="5"/>
         <v>3.7091555555555558</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="9">
         <f t="shared" si="5"/>
         <v>3.1792761904761906</v>
       </c>
     </row>
     <row r="27" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F27">
-        <f t="shared" ref="F26:F32" si="6">F7*1024*1024</f>
+        <f t="shared" ref="F27:F32" si="6">F7*1024*1024</f>
         <v>16777216</v>
       </c>
       <c r="K27" s="3" t="d">
         <v>2011-10-04</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <f t="shared" si="4"/>
         <v>27.306666666666668</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="9">
         <f t="shared" ref="M27:P27" si="7">$L27/M$23*$I7</f>
         <v>44.509866666666667</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="9">
         <f t="shared" si="7"/>
         <v>35.607893333333337</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="9">
         <f t="shared" si="7"/>
         <v>29.673244444444446</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="9">
         <f t="shared" si="7"/>
         <v>25.434209523809525</v>
       </c>
@@ -28175,23 +28210,23 @@
       <c r="K28" s="3" t="d">
         <v>2012-09-12</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
         <f t="shared" si="4"/>
         <v>36.777464788732395</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="9">
         <f t="shared" ref="M28:P28" si="8">$L28/M$23*$I8</f>
         <v>59.947267605633805</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="9">
         <f t="shared" si="8"/>
         <v>47.957814084507042</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="9">
         <f t="shared" si="8"/>
         <v>39.964845070422534</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="9">
         <f t="shared" si="8"/>
         <v>34.255581488933601</v>
       </c>
@@ -28204,23 +28239,23 @@
       <c r="K29" s="3" t="d">
         <v>2013-09-20</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="9">
         <f t="shared" si="4"/>
         <v>110.7650704225352</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="9">
         <f t="shared" ref="M29:P29" si="9">$L29/M$23*$I9</f>
         <v>180.5470647887324</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="9">
         <f t="shared" si="9"/>
         <v>144.43765183098591</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="9">
         <f t="shared" si="9"/>
         <v>120.36470985915493</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29" s="9">
         <f t="shared" si="9"/>
         <v>103.16975130784706</v>
       </c>
@@ -28233,23 +28268,23 @@
       <c r="K30" s="3" t="d">
         <v>2014-09-19</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <f t="shared" si="4"/>
         <v>58.254222222222225</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="9">
         <f t="shared" ref="M30:P30" si="10">$L30/M$23*$I10</f>
         <v>116.79971555555557</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="9">
         <f t="shared" si="10"/>
         <v>93.439772444444458</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="9">
         <f t="shared" si="10"/>
         <v>77.866477037037029</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="9">
         <f t="shared" si="10"/>
         <v>66.742694603174613</v>
       </c>
@@ -28262,23 +28297,23 @@
       <c r="K31" s="3" t="d">
         <v>2015-09-25</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="9">
         <f t="shared" si="4"/>
         <v>126.41975308641975</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="9">
         <f t="shared" ref="M31:P31" si="11">$L31/M$23*$I11</f>
         <v>253.47160493827161</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="9">
         <f t="shared" si="11"/>
         <v>202.77728395061729</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="9">
         <f t="shared" si="11"/>
         <v>168.98106995884774</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="9">
         <f t="shared" si="11"/>
         <v>144.84091710758375</v>
       </c>
@@ -28291,23 +28326,23 @@
       <c r="K32" s="3" t="d">
         <v>2016-09-16</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <f t="shared" si="4"/>
         <v>174.76266666666669</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="9">
         <f t="shared" ref="M32:P32" si="12">$L32/M$23*$I12</f>
         <v>350.3991466666667</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="9">
         <f t="shared" si="12"/>
         <v>280.31931733333334</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="9">
         <f t="shared" si="12"/>
         <v>233.59943111111113</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="9">
         <f t="shared" si="12"/>
         <v>200.22808380952384</v>
       </c>
@@ -28354,227 +28389,227 @@
       <c r="K36" s="3" t="d">
         <v>2009-06-19</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="9">
         <f>F36/G$5</f>
         <v>10.922666666666668</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="9">
         <f>$L36/M$34*$G$5</f>
         <v>3.6408888888888895</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="9">
         <f t="shared" ref="N36:P36" si="13">$L36/N$34*$G5</f>
         <v>1.8204444444444448</v>
       </c>
-      <c r="O36" s="10">
+      <c r="O36" s="9">
         <f t="shared" si="13"/>
         <v>0.80908641975308648</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36" s="9">
         <f t="shared" si="13"/>
         <v>0.45511111111111119</v>
       </c>
     </row>
     <row r="37" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F37">
-        <f>E6*1024*1024</f>
+        <f t="shared" ref="F37:F43" si="14">E6*1024*1024</f>
         <v>3355443.2000000002</v>
       </c>
       <c r="K37" s="3" t="d">
         <v>2010-06-24</v>
       </c>
-      <c r="L37" s="10">
-        <f t="shared" ref="L37:L43" si="14">F37/G6</f>
+      <c r="L37" s="9">
+        <f t="shared" ref="L37:L43" si="15">F37/G6</f>
         <v>5.461333333333334</v>
       </c>
-      <c r="M37" s="10">
-        <f t="shared" ref="M37:P37" si="15">$L37/M$34*$G6</f>
+      <c r="M37" s="9">
+        <f t="shared" ref="M37:P37" si="16">$L37/M$34*$G6</f>
         <v>7.281777777777779</v>
       </c>
-      <c r="N37" s="10">
-        <f t="shared" si="15"/>
+      <c r="N37" s="9">
+        <f t="shared" si="16"/>
         <v>3.6408888888888895</v>
       </c>
-      <c r="O37" s="10">
-        <f t="shared" si="15"/>
+      <c r="O37" s="9">
+        <f t="shared" si="16"/>
         <v>1.618172839506173</v>
       </c>
-      <c r="P37" s="10">
-        <f t="shared" si="15"/>
+      <c r="P37" s="9">
+        <f t="shared" si="16"/>
         <v>0.91022222222222238</v>
       </c>
     </row>
     <row r="38" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F38">
-        <f>E7*1024*1024</f>
+        <f t="shared" si="14"/>
         <v>6710886.4000000004</v>
       </c>
       <c r="K38" s="3" t="d">
         <v>2011-10-04</v>
       </c>
-      <c r="L38" s="10">
-        <f t="shared" si="14"/>
+      <c r="L38" s="9">
+        <f t="shared" si="15"/>
         <v>10.922666666666668</v>
       </c>
-      <c r="M38" s="10">
-        <f t="shared" ref="M38:P38" si="16">$L38/M$34*$G7</f>
+      <c r="M38" s="9">
+        <f t="shared" ref="M38:P38" si="17">$L38/M$34*$G7</f>
         <v>14.563555555555558</v>
       </c>
-      <c r="N38" s="10">
-        <f t="shared" si="16"/>
+      <c r="N38" s="9">
+        <f t="shared" si="17"/>
         <v>7.281777777777779</v>
       </c>
-      <c r="O38" s="10">
-        <f t="shared" si="16"/>
+      <c r="O38" s="9">
+        <f t="shared" si="17"/>
         <v>3.2363456790123459</v>
       </c>
-      <c r="P38" s="10">
-        <f t="shared" si="16"/>
+      <c r="P38" s="9">
+        <f t="shared" si="17"/>
         <v>1.8204444444444448</v>
       </c>
     </row>
     <row r="39" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F39">
-        <f>E8*1024*1024</f>
+        <f t="shared" si="14"/>
         <v>8912896</v>
       </c>
       <c r="K39" s="3" t="d">
         <v>2012-09-12</v>
       </c>
-      <c r="L39" s="10">
-        <f t="shared" si="14"/>
+      <c r="L39" s="9">
+        <f t="shared" si="15"/>
         <v>12.259154929577464</v>
       </c>
-      <c r="M39" s="10">
-        <f t="shared" ref="M39:P39" si="17">$L39/M$34*$G8</f>
+      <c r="M39" s="9">
+        <f t="shared" ref="M39:P39" si="18">$L39/M$34*$G8</f>
         <v>19.342222222222222</v>
       </c>
-      <c r="N39" s="10">
-        <f t="shared" si="17"/>
+      <c r="N39" s="9">
+        <f t="shared" si="18"/>
         <v>9.6711111111111112</v>
       </c>
-      <c r="O39" s="10">
-        <f t="shared" si="17"/>
+      <c r="O39" s="9">
+        <f t="shared" si="18"/>
         <v>4.2982716049382717</v>
       </c>
-      <c r="P39" s="10">
-        <f t="shared" si="17"/>
+      <c r="P39" s="9">
+        <f t="shared" si="18"/>
         <v>2.4177777777777778</v>
       </c>
     </row>
     <row r="40" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F40">
-        <f>E9*1024*1024</f>
+        <f t="shared" si="14"/>
         <v>13421772.800000001</v>
       </c>
       <c r="K40" s="3" t="d">
         <v>2013-09-20</v>
       </c>
-      <c r="L40" s="10">
-        <f t="shared" si="14"/>
+      <c r="L40" s="9">
+        <f t="shared" si="15"/>
         <v>18.460845070422536</v>
       </c>
-      <c r="M40" s="10">
-        <f t="shared" ref="M40:P40" si="18">$L40/M$34*$G9</f>
+      <c r="M40" s="9">
+        <f t="shared" ref="M40:P40" si="19">$L40/M$34*$G9</f>
         <v>29.127111111111113</v>
       </c>
-      <c r="N40" s="10">
-        <f t="shared" si="18"/>
+      <c r="N40" s="9">
+        <f t="shared" si="19"/>
         <v>14.563555555555556</v>
       </c>
-      <c r="O40" s="10">
-        <f t="shared" si="18"/>
+      <c r="O40" s="9">
+        <f t="shared" si="19"/>
         <v>6.4726913580246919</v>
       </c>
-      <c r="P40" s="10">
-        <f t="shared" si="18"/>
+      <c r="P40" s="9">
+        <f t="shared" si="19"/>
         <v>3.6408888888888891</v>
       </c>
     </row>
     <row r="41" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F41">
-        <f>E10*1024*1024</f>
+        <f t="shared" si="14"/>
         <v>13421772.800000001</v>
       </c>
       <c r="K41" s="3" t="d">
         <v>2014-09-19</v>
       </c>
-      <c r="L41" s="10">
-        <f t="shared" si="14"/>
+      <c r="L41" s="9">
+        <f t="shared" si="15"/>
         <v>6.4726913580246919</v>
       </c>
-      <c r="M41" s="10">
-        <f t="shared" ref="M41:P41" si="19">$L41/M$34*$G10</f>
+      <c r="M41" s="9">
+        <f t="shared" ref="M41:P41" si="20">$L41/M$34*$G10</f>
         <v>29.127111111111116</v>
       </c>
-      <c r="N41" s="10">
-        <f t="shared" si="19"/>
+      <c r="N41" s="9">
+        <f t="shared" si="20"/>
         <v>14.563555555555558</v>
       </c>
-      <c r="O41" s="10">
-        <f t="shared" si="19"/>
+      <c r="O41" s="9">
+        <f t="shared" si="20"/>
         <v>6.4726913580246919</v>
       </c>
-      <c r="P41" s="10">
-        <f t="shared" si="19"/>
+      <c r="P41" s="9">
+        <f t="shared" si="20"/>
         <v>3.6408888888888895</v>
       </c>
     </row>
     <row r="42" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F42">
-        <f>E11*1024*1024</f>
+        <f t="shared" si="14"/>
         <v>26843545.600000001</v>
       </c>
       <c r="K42" s="3" t="d">
         <v>2015-09-25</v>
       </c>
-      <c r="L42" s="10">
-        <f t="shared" si="14"/>
+      <c r="L42" s="9">
+        <f t="shared" si="15"/>
         <v>12.945382716049384</v>
       </c>
-      <c r="M42" s="10">
-        <f t="shared" ref="M42:P42" si="20">$L42/M$34*$G11</f>
+      <c r="M42" s="9">
+        <f t="shared" ref="M42:P42" si="21">$L42/M$34*$G11</f>
         <v>58.254222222222232</v>
       </c>
-      <c r="N42" s="10">
-        <f t="shared" si="20"/>
+      <c r="N42" s="9">
+        <f t="shared" si="21"/>
         <v>29.127111111111116</v>
       </c>
-      <c r="O42" s="10">
-        <f t="shared" si="20"/>
+      <c r="O42" s="9">
+        <f t="shared" si="21"/>
         <v>12.945382716049384</v>
       </c>
-      <c r="P42" s="10">
-        <f t="shared" si="20"/>
+      <c r="P42" s="9">
+        <f t="shared" si="21"/>
         <v>7.281777777777779</v>
       </c>
     </row>
     <row r="43" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F43">
-        <f>E12*1024*1024</f>
+        <f t="shared" si="14"/>
         <v>26843545.600000001</v>
       </c>
       <c r="K43" s="3" t="d">
         <v>2016-09-16</v>
       </c>
-      <c r="L43" s="10">
-        <f t="shared" si="14"/>
+      <c r="L43" s="9">
+        <f t="shared" si="15"/>
         <v>12.945382716049384</v>
       </c>
-      <c r="M43" s="10">
-        <f t="shared" ref="M43:P43" si="21">$L43/M$34*$G12</f>
+      <c r="M43" s="9">
+        <f t="shared" ref="M43:P43" si="22">$L43/M$34*$G12</f>
         <v>58.254222222222232</v>
       </c>
-      <c r="N43" s="10">
-        <f t="shared" si="21"/>
+      <c r="N43" s="9">
+        <f t="shared" si="22"/>
         <v>29.127111111111116</v>
       </c>
-      <c r="O43" s="10">
-        <f t="shared" si="21"/>
+      <c r="O43" s="9">
+        <f t="shared" si="22"/>
         <v>12.945382716049384</v>
       </c>
-      <c r="P43" s="10">
-        <f t="shared" si="21"/>
+      <c r="P43" s="9">
+        <f t="shared" si="22"/>
         <v>7.281777777777779</v>
       </c>
     </row>
@@ -28620,227 +28655,227 @@
       <c r="K47" s="3" t="d">
         <v>2009-06-19</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="9">
         <f>F47/G5</f>
         <v>8.1920000000000002</v>
       </c>
-      <c r="M47" s="10">
+      <c r="M47" s="9">
         <f>$L47/M$45*$G5</f>
         <v>2.7306666666666666</v>
       </c>
-      <c r="N47" s="10">
-        <f t="shared" ref="N47:P47" si="22">$L47/N$45*$G5</f>
+      <c r="N47" s="9">
+        <f t="shared" ref="N47:P47" si="23">$L47/N$45*$G5</f>
         <v>1.3653333333333333</v>
       </c>
-      <c r="O47" s="10">
-        <f t="shared" si="22"/>
+      <c r="O47" s="9">
+        <f t="shared" si="23"/>
         <v>0.60681481481481481</v>
       </c>
-      <c r="P47" s="10">
-        <f t="shared" si="22"/>
+      <c r="P47" s="9">
+        <f t="shared" si="23"/>
         <v>0.34133333333333332</v>
       </c>
     </row>
     <row r="48" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F48">
-        <f t="shared" ref="F48:F54" si="23">F6*1024*1024</f>
+        <f t="shared" ref="F48:F54" si="24">F6*1024*1024</f>
         <v>2097152</v>
       </c>
       <c r="K48" s="3" t="d">
         <v>2010-06-24</v>
       </c>
-      <c r="L48" s="10">
-        <f t="shared" ref="L48:L54" si="24">F48/G6</f>
+      <c r="L48" s="9">
+        <f t="shared" ref="L48:L54" si="25">F48/G6</f>
         <v>3.4133333333333336</v>
       </c>
-      <c r="M48" s="10">
+      <c r="M48" s="9">
         <f>$L48/M$45*$G6</f>
         <v>4.5511111111111111</v>
       </c>
-      <c r="N48" s="10">
+      <c r="N48" s="9">
         <f>$L48/N$45*$G6</f>
         <v>2.2755555555555556</v>
       </c>
-      <c r="O48" s="10">
-        <f t="shared" ref="M48:P48" si="25">$L48/O$45*$G6</f>
+      <c r="O48" s="9">
+        <f t="shared" ref="O48:P48" si="26">$L48/O$45*$G6</f>
         <v>1.011358024691358</v>
       </c>
-      <c r="P48" s="10">
-        <f t="shared" si="25"/>
+      <c r="P48" s="9">
+        <f t="shared" si="26"/>
         <v>0.56888888888888889</v>
       </c>
     </row>
     <row r="49" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16777216</v>
       </c>
       <c r="K49" s="3" t="d">
         <v>2011-10-04</v>
       </c>
-      <c r="L49" s="10">
-        <f t="shared" si="24"/>
+      <c r="L49" s="9">
+        <f t="shared" si="25"/>
         <v>27.306666666666668</v>
       </c>
-      <c r="M49" s="10">
-        <f t="shared" ref="M49:P49" si="26">$L49/M$45*$G7</f>
+      <c r="M49" s="9">
+        <f t="shared" ref="M49:P49" si="27">$L49/M$45*$G7</f>
         <v>36.408888888888889</v>
       </c>
-      <c r="N49" s="10">
-        <f t="shared" si="26"/>
+      <c r="N49" s="9">
+        <f t="shared" si="27"/>
         <v>18.204444444444444</v>
       </c>
-      <c r="O49" s="10">
-        <f t="shared" si="26"/>
+      <c r="O49" s="9">
+        <f t="shared" si="27"/>
         <v>8.0908641975308644</v>
       </c>
-      <c r="P49" s="10">
-        <f t="shared" si="26"/>
+      <c r="P49" s="9">
+        <f t="shared" si="27"/>
         <v>4.5511111111111111</v>
       </c>
     </row>
     <row r="50" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>26738688</v>
       </c>
       <c r="K50" s="3" t="d">
         <v>2012-09-12</v>
       </c>
-      <c r="L50" s="10">
-        <f t="shared" si="24"/>
+      <c r="L50" s="9">
+        <f t="shared" si="25"/>
         <v>36.777464788732395</v>
       </c>
-      <c r="M50" s="10">
-        <f t="shared" ref="M50:P50" si="27">$L50/M$45*$G8</f>
+      <c r="M50" s="9">
+        <f t="shared" ref="M50:P50" si="28">$L50/M$45*$G8</f>
         <v>58.026666666666671</v>
       </c>
-      <c r="N50" s="10">
-        <f t="shared" si="27"/>
+      <c r="N50" s="9">
+        <f t="shared" si="28"/>
         <v>29.013333333333335</v>
       </c>
-      <c r="O50" s="10">
-        <f t="shared" si="27"/>
+      <c r="O50" s="9">
+        <f t="shared" si="28"/>
         <v>12.894814814814815</v>
       </c>
-      <c r="P50" s="10">
-        <f t="shared" si="27"/>
+      <c r="P50" s="9">
+        <f t="shared" si="28"/>
         <v>7.2533333333333339</v>
       </c>
     </row>
     <row r="51" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>80530636.799999997</v>
       </c>
       <c r="K51" s="3" t="d">
         <v>2013-09-20</v>
       </c>
-      <c r="L51" s="10">
-        <f t="shared" si="24"/>
+      <c r="L51" s="9">
+        <f t="shared" si="25"/>
         <v>110.7650704225352</v>
       </c>
-      <c r="M51" s="10">
-        <f t="shared" ref="M51:P51" si="28">$L51/M$45*$G9</f>
+      <c r="M51" s="9">
+        <f t="shared" ref="M51:P51" si="29">$L51/M$45*$G9</f>
         <v>174.76266666666666</v>
       </c>
-      <c r="N51" s="10">
-        <f t="shared" si="28"/>
+      <c r="N51" s="9">
+        <f t="shared" si="29"/>
         <v>87.38133333333333</v>
       </c>
-      <c r="O51" s="10">
-        <f t="shared" si="28"/>
+      <c r="O51" s="9">
+        <f t="shared" si="29"/>
         <v>38.836148148148148</v>
       </c>
-      <c r="P51" s="10">
-        <f t="shared" si="28"/>
+      <c r="P51" s="9">
+        <f t="shared" si="29"/>
         <v>21.845333333333333</v>
       </c>
     </row>
     <row r="52" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>120795955.2</v>
       </c>
       <c r="K52" s="3" t="d">
         <v>2014-09-19</v>
       </c>
-      <c r="L52" s="10">
-        <f t="shared" si="24"/>
+      <c r="L52" s="9">
+        <f t="shared" si="25"/>
         <v>58.254222222222225</v>
       </c>
-      <c r="M52" s="10">
-        <f t="shared" ref="M52:P52" si="29">$L52/M$45*$G10</f>
+      <c r="M52" s="9">
+        <f t="shared" ref="M52:P52" si="30">$L52/M$45*$G10</f>
         <v>262.14400000000001</v>
       </c>
-      <c r="N52" s="10">
-        <f t="shared" si="29"/>
+      <c r="N52" s="9">
+        <f t="shared" si="30"/>
         <v>131.072</v>
       </c>
-      <c r="O52" s="10">
-        <f t="shared" si="29"/>
+      <c r="O52" s="9">
+        <f t="shared" si="30"/>
         <v>58.254222222222225</v>
       </c>
-      <c r="P52" s="10">
-        <f t="shared" si="29"/>
+      <c r="P52" s="9">
+        <f t="shared" si="30"/>
         <v>32.768000000000001</v>
       </c>
     </row>
     <row r="53" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>262144000</v>
       </c>
       <c r="K53" s="3" t="d">
         <v>2015-09-25</v>
       </c>
-      <c r="L53" s="10">
-        <f t="shared" si="24"/>
+      <c r="L53" s="9">
+        <f t="shared" si="25"/>
         <v>126.41975308641975</v>
       </c>
-      <c r="M53" s="10">
-        <f t="shared" ref="M53:P53" si="30">$L53/M$45*$G11</f>
+      <c r="M53" s="9">
+        <f t="shared" ref="M53:P53" si="31">$L53/M$45*$G11</f>
         <v>568.8888888888888</v>
       </c>
-      <c r="N53" s="10">
-        <f t="shared" si="30"/>
+      <c r="N53" s="9">
+        <f t="shared" si="31"/>
         <v>284.4444444444444</v>
       </c>
-      <c r="O53" s="10">
-        <f t="shared" si="30"/>
+      <c r="O53" s="9">
+        <f t="shared" si="31"/>
         <v>126.41975308641975</v>
       </c>
-      <c r="P53" s="10">
-        <f t="shared" si="30"/>
+      <c r="P53" s="9">
+        <f t="shared" si="31"/>
         <v>71.1111111111111</v>
       </c>
     </row>
     <row r="54" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>362387865.60000002</v>
       </c>
       <c r="K54" s="3" t="d">
         <v>2016-09-16</v>
       </c>
-      <c r="L54" s="10">
-        <f t="shared" si="24"/>
+      <c r="L54" s="9">
+        <f t="shared" si="25"/>
         <v>174.76266666666669</v>
       </c>
-      <c r="M54" s="10">
-        <f t="shared" ref="M54:P54" si="31">$L54/M$45*$G12</f>
+      <c r="M54" s="9">
+        <f t="shared" ref="M54:P54" si="32">$L54/M$45*$G12</f>
         <v>786.43200000000013</v>
       </c>
-      <c r="N54" s="10">
-        <f t="shared" si="31"/>
+      <c r="N54" s="9">
+        <f t="shared" si="32"/>
         <v>393.21600000000007</v>
       </c>
-      <c r="O54" s="10">
-        <f t="shared" si="31"/>
+      <c r="O54" s="9">
+        <f t="shared" si="32"/>
         <v>174.76266666666669</v>
       </c>
-      <c r="P54" s="10">
-        <f t="shared" si="31"/>
+      <c r="P54" s="9">
+        <f t="shared" si="32"/>
         <v>98.304000000000016</v>
       </c>
     </row>
@@ -28884,12 +28919,12 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -29338,12 +29373,12 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18" t="s">

--- a/doc/GPU database.xlsx
+++ b/doc/GPU database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\G-Truc\website\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\G-Truc\website\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12660" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="542" uniqueCount="203">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="546" uniqueCount="205">
   <si>
     <t>PS4 bandwidth</t>
   </si>
@@ -659,12 +659,6 @@
     <t>iPhone GFLOPS</t>
   </si>
   <si>
-    <t>Galaxy S pixel count</t>
-  </si>
-  <si>
-    <t>iPhone pixel count</t>
-  </si>
-  <si>
     <t>Galaxy X pixel count</t>
   </si>
   <si>
@@ -685,11 +679,23 @@
   <si>
     <t>Playstation GFLOPS</t>
   </si>
+  <si>
+    <t>32" 2160p (4K)</t>
+  </si>
+  <si>
+    <t>27" 1440p</t>
+  </si>
+  <si>
+    <t>24" 1080p</t>
+  </si>
+  <si>
+    <t>22" 720p</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
@@ -775,7 +781,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -988,6 +994,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6224-4EF3-B573-2B7226F2FAA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1112,6 +1123,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6224-4EF3-B573-2B7226F2FAA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1236,6 +1252,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6224-4EF3-B573-2B7226F2FAA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1360,6 +1381,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6224-4EF3-B573-2B7226F2FAA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1484,6 +1510,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6224-4EF3-B573-2B7226F2FAA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1702,7 +1733,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1757,6 +1788,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1921,6 +1953,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0A9-4B6D-87BF-6F3DD230A399}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2036,6 +2073,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B0A9-4B6D-87BF-6F3DD230A399}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2151,6 +2193,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B0A9-4B6D-87BF-6F3DD230A399}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2257,6 +2304,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B0A9-4B6D-87BF-6F3DD230A399}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2369,6 +2421,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B0A9-4B6D-87BF-6F3DD230A399}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2518,6 +2575,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2585,7 +2643,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2643,16 +2701,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="20%"/>
-              <a:lumOff val="80%"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2812,6 +2868,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3506-4FDD-803C-73E3AC8AE14C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2927,6 +2988,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3506-4FDD-803C-73E3AC8AE14C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3042,6 +3108,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3506-4FDD-803C-73E3AC8AE14C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3148,6 +3219,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3506-4FDD-803C-73E3AC8AE14C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3260,6 +3336,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3506-4FDD-803C-73E3AC8AE14C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3409,6 +3490,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3476,7 +3558,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3534,6 +3616,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3698,6 +3781,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DB3-48D2-B810-A8C3E1D1DCEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3813,6 +3901,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DB3-48D2-B810-A8C3E1D1DCEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3928,6 +4021,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5DB3-48D2-B810-A8C3E1D1DCEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4034,6 +4132,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5DB3-48D2-B810-A8C3E1D1DCEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4146,6 +4249,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5DB3-48D2-B810-A8C3E1D1DCEF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4296,6 +4404,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4363,7 +4472,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4413,6 +4522,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4576,6 +4686,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BD5-4427-BAFB-07BC9F0057CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -4695,6 +4810,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1BD5-4427-BAFB-07BC9F0057CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -4814,6 +4934,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1BD5-4427-BAFB-07BC9F0057CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -4933,6 +5058,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1BD5-4427-BAFB-07BC9F0057CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -5052,6 +5182,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1BD5-4427-BAFB-07BC9F0057CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -5149,6 +5284,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1BD5-4427-BAFB-07BC9F0057CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5246,6 +5386,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1BD5-4427-BAFB-07BC9F0057CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5343,6 +5488,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1BD5-4427-BAFB-07BC9F0057CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5440,6 +5590,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1BD5-4427-BAFB-07BC9F0057CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5537,6 +5692,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1BD5-4427-BAFB-07BC9F0057CF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5687,6 +5847,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5754,7 +5915,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5796,6 +5957,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5925,6 +6087,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-171F-4D8D-BDF8-F4D84686E061}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -6020,6 +6187,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-171F-4D8D-BDF8-F4D84686E061}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -6115,6 +6287,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-171F-4D8D-BDF8-F4D84686E061}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -6210,6 +6387,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-171F-4D8D-BDF8-F4D84686E061}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -6305,6 +6487,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-171F-4D8D-BDF8-F4D84686E061}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -6425,6 +6612,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-171F-4D8D-BDF8-F4D84686E061}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6546,6 +6738,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-171F-4D8D-BDF8-F4D84686E061}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6667,6 +6864,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-171F-4D8D-BDF8-F4D84686E061}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6787,6 +6989,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-171F-4D8D-BDF8-F4D84686E061}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -6908,6 +7115,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-171F-4D8D-BDF8-F4D84686E061}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7058,6 +7270,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7125,7 +7338,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7334,6 +7547,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE49-46DF-A83F-31C8A83BB0E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -7470,6 +7688,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE49-46DF-A83F-31C8A83BB0E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -7606,6 +7829,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AE49-46DF-A83F-31C8A83BB0E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -7742,6 +7970,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AE49-46DF-A83F-31C8A83BB0E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -7878,6 +8111,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AE49-46DF-A83F-31C8A83BB0E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -7984,6 +8222,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AE49-46DF-A83F-31C8A83BB0E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8090,6 +8333,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AE49-46DF-A83F-31C8A83BB0E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8196,6 +8444,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AE49-46DF-A83F-31C8A83BB0E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -8302,6 +8555,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AE49-46DF-A83F-31C8A83BB0E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -8408,6 +8666,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-AE49-46DF-A83F-31C8A83BB0E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8623,7 +8886,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8808,6 +9071,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C858-42DB-AB30-09FFBE35A691}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8914,6 +9182,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C858-42DB-AB30-09FFBE35A691}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -9020,6 +9293,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C858-42DB-AB30-09FFBE35A691}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -9126,6 +9404,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C858-42DB-AB30-09FFBE35A691}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -9232,6 +9515,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C858-42DB-AB30-09FFBE35A691}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9446,7 +9734,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9601,6 +9889,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B95C-4AA3-986A-8335AA5B12BD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9815,7 +10108,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9964,6 +10257,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90CF-49B8-B415-D98B81D7C57F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10178,7 +10476,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10333,6 +10631,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C21-40CE-86CA-9039A5BD89A4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10547,7 +10850,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10617,6 +10920,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10805,6 +11109,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5BE-466B-9C58-2AADC6ED29E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -10935,6 +11244,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B5BE-466B-9C58-2AADC6ED29E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -11065,6 +11379,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B5BE-466B-9C58-2AADC6ED29E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -11195,6 +11514,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B5BE-466B-9C58-2AADC6ED29E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -11325,6 +11649,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B5BE-466B-9C58-2AADC6ED29E8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11474,6 +11803,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11541,7 +11871,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11696,6 +12026,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13D0-4618-B95D-095830CE1DFF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11910,7 +12245,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12089,6 +12424,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F64-472C-B9D3-D5D3DA8E98D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -12303,7 +12643,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12482,6 +12822,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0271-40AB-86DF-40AF12382988}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -12696,7 +13041,7 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -12845,6 +13190,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A19E-44BD-AD7A-3749E98200B9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13059,7 +13409,7 @@
 </file>
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13208,6 +13558,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A51-4978-A009-5ED41F5019CC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13422,7 +13777,7 @@
 </file>
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13577,6 +13932,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D81-47AB-8374-98E5C08C2648}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13791,7 +14151,7 @@
 </file>
 
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13946,6 +14306,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-944C-4B3E-A681-AF200156415E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -14160,7 +14525,7 @@
 </file>
 
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14314,6 +14679,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85C9-4B66-B2D3-95EB2B93A6A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -14420,6 +14790,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85C9-4B66-B2D3-95EB2B93A6A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -14526,6 +14901,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-85C9-4B66-B2D3-95EB2B93A6A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -14626,6 +15006,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-85C9-4B66-B2D3-95EB2B93A6A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -14738,6 +15123,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-85C9-4B66-B2D3-95EB2B93A6A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -14814,6 +15204,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-85C9-4B66-B2D3-95EB2B93A6A0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -15032,7 +15427,7 @@
 </file>
 
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15186,6 +15581,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DDA-4C8A-9B7D-0B5E2A4206A2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -15292,6 +15692,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DDA-4C8A-9B7D-0B5E2A4206A2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -15392,6 +15797,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3DDA-4C8A-9B7D-0B5E2A4206A2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -15492,6 +15902,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3DDA-4C8A-9B7D-0B5E2A4206A2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -15604,6 +16019,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3DDA-4C8A-9B7D-0B5E2A4206A2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -15680,6 +16100,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3DDA-4C8A-9B7D-0B5E2A4206A2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -15896,7 +16321,7 @@
 </file>
 
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -16021,6 +16446,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2CD-41D3-B8A9-F0E3D0C376D5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -16235,7 +16665,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -16449,6 +16879,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4E7-40ED-8F6B-97EBE09E96A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -16549,6 +16984,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F4E7-40ED-8F6B-97EBE09E96A5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -16767,7 +17207,7 @@
 </file>
 
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -16892,6 +17332,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-268B-4A80-8111-2175ED0C47DC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -17106,7 +17551,7 @@
 </file>
 
 <file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -17120,6 +17565,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17224,6 +17670,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17C0-459B-AE75-61691567A411}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -17294,6 +17745,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17C0-459B-AE75-61691567A411}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -17364,6 +17820,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-17C0-459B-AE75-61691567A411}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -17493,6 +17954,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17560,7 +18022,7 @@
 </file>
 
 <file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -17599,6 +18061,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17745,6 +18208,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE6E-4458-AFFB-111D7993640E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -17859,6 +18327,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE6E-4458-AFFB-111D7993640E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -17973,6 +18446,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CE6E-4458-AFFB-111D7993640E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -18087,6 +18565,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CE6E-4458-AFFB-111D7993640E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -18199,6 +18682,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CE6E-4458-AFFB-111D7993640E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -18332,6 +18820,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18399,7 +18888,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -18619,6 +19108,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6D7-4B3B-88AF-C394EA251DE9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -18725,6 +19219,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6D7-4B3B-88AF-C394EA251DE9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -18831,6 +19330,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C6D7-4B3B-88AF-C394EA251DE9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -18937,6 +19441,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C6D7-4B3B-88AF-C394EA251DE9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -19043,6 +19552,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C6D7-4B3B-88AF-C394EA251DE9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -19260,7 +19774,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -19451,6 +19965,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AF0-43A1-93D1-1AB53E10B75D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -19557,6 +20076,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5AF0-43A1-93D1-1AB53E10B75D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -19774,7 +20298,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -19858,7 +20382,7 @@
           <c:x val="9.7243000874890642E-2"/>
           <c:y val="0.12125984251968504"/>
           <c:w val="0.80421544181977256"/>
-          <c:h val="0.74674236032995878"/>
+          <c:h val="0.62864701912260956"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -19985,6 +20509,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0197-4A1D-8625-C2F00D8C6CC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -20109,6 +20638,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0197-4A1D-8625-C2F00D8C6CC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -20211,6 +20745,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0197-4A1D-8625-C2F00D8C6CC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -20317,6 +20856,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0197-4A1D-8625-C2F00D8C6CC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -20536,7 +21080,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -20620,7 +21164,7 @@
           <c:x val="9.474300087489064E-2"/>
           <c:y val="0.13475022706630335"/>
           <c:w val="0.84662510936132984"/>
-          <c:h val="0.54164074177376331"/>
+          <c:h val="0.65302482152875851"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -20731,6 +21275,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB0F-499D-9181-71DCB034D082}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -20831,6 +21380,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB0F-499D-9181-71DCB034D082}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -20901,6 +21455,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB0F-499D-9181-71DCB034D082}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -20977,6 +21536,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DB0F-499D-9181-71DCB034D082}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -21047,6 +21611,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DB0F-499D-9181-71DCB034D082}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -21123,6 +21692,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DB0F-499D-9181-71DCB034D082}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -21341,7 +21915,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -21354,7 +21928,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Screen pixel count evolution of iPhone and Galaxy S</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -21369,7 +21999,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Galaxy S pixel count</c:v>
+                  <c:v>Galaxy S</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -21459,6 +22089,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D148-4836-878B-1B42288A7305}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -21469,7 +22104,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>iPhone pixel count</c:v>
+                  <c:v>iPhone</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -21577,6 +22212,413 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D148-4836-878B-1B42288A7305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mobile!$I$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32" 2160p (4K)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mobile!$N$75:$N$76</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>39262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mobile!$I$75:$I$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8294400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8294400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8294400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8294400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8294400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8294400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8294400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8294400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8294400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8294400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D148-4836-878B-1B42288A7305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mobile!$J$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27" 1440p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mobile!$N$75:$N$76</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>39262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mobile!$J$75:$J$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3686400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3686400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D148-4836-878B-1B42288A7305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mobile!$K$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24" 1080p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mobile!$N$75:$N$76</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>39262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mobile!$K$75:$K$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2073600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2073600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D148-4836-878B-1B42288A7305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Mobile!$L$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22" 720p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mobile!$N$75:$N$76</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>39262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mobile!$L$75:$L$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>921600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>921600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D148-4836-878B-1B42288A7305}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -21791,7 +22833,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -21835,6 +22877,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21985,6 +23028,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D70-4537-B630-584A81FDFCB0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -22100,6 +23148,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D70-4537-B630-584A81FDFCB0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -22215,6 +23268,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D70-4537-B630-584A81FDFCB0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -22321,6 +23379,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9D70-4537-B630-584A81FDFCB0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -22433,6 +23496,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9D70-4537-B630-584A81FDFCB0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -22584,6 +23652,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -40601,16 +41670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>252413</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40631,16 +41700,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>776287</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>290511</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40661,16 +41730,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40697,15 +41766,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>400048</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>1123948</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40726,16 +41795,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>395286</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1385886</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40756,16 +41825,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>376236</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1376361</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40787,15 +41856,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:colOff>1123949</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42547,26 +43616,26 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P128"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="F67" workbookViewId="0">
       <selection activeCell="B81" sqref="B81:F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
@@ -45458,26 +46527,27 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
@@ -46526,7 +47596,7 @@
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
@@ -46709,13 +47779,13 @@
         <v>81</v>
       </c>
       <c r="F64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s">
         <v>194</v>
       </c>
-      <c r="G64" t="s">
-        <v>196</v>
-      </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>80</v>
       </c>
@@ -46730,7 +47800,7 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>79</v>
       </c>
@@ -46745,7 +47815,7 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>78</v>
       </c>
@@ -46760,7 +47830,7 @@
         <v>460800</v>
       </c>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>77</v>
       </c>
@@ -46775,7 +47845,7 @@
         <v>1036800</v>
       </c>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>76</v>
       </c>
@@ -46790,7 +47860,7 @@
         <v>1036800</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>75</v>
       </c>
@@ -46805,7 +47875,7 @@
         <v>1843200</v>
       </c>
     </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>74</v>
       </c>
@@ -46820,18 +47890,30 @@
         <v>1843200</v>
       </c>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>81</v>
       </c>
       <c r="F74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" t="s">
         <v>195</v>
       </c>
-      <c r="G74" t="s">
-        <v>197</v>
+      <c r="I74" t="s">
+        <v>201</v>
+      </c>
+      <c r="J74" t="s">
+        <v>202</v>
+      </c>
+      <c r="K74" t="s">
+        <v>203</v>
+      </c>
+      <c r="L74" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>3</v>
       </c>
@@ -46845,8 +47927,23 @@
         <f>F75 / 2</f>
         <v>76800</v>
       </c>
+      <c r="I75">
+        <v>8294400</v>
+      </c>
+      <c r="J75">
+        <v>3686400</v>
+      </c>
+      <c r="K75">
+        <v>2073600</v>
+      </c>
+      <c r="L75">
+        <v>921600</v>
+      </c>
+      <c r="N75" s="10" t="d">
+        <v>2007-06-29</v>
+      </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>124</v>
       </c>
@@ -46860,8 +47957,23 @@
         <f t="shared" ref="G76:G84" si="9">F76 / 2</f>
         <v>76800</v>
       </c>
+      <c r="I76">
+        <v>8294400</v>
+      </c>
+      <c r="J76">
+        <v>3686400</v>
+      </c>
+      <c r="K76">
+        <v>2073600</v>
+      </c>
+      <c r="L76">
+        <v>921600</v>
+      </c>
+      <c r="N76" s="10" t="d">
+        <v>2016-09-16</v>
+      </c>
     </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>123</v>
       </c>
@@ -46875,8 +47987,20 @@
         <f t="shared" si="9"/>
         <v>76800</v>
       </c>
+      <c r="I77">
+        <v>8294400</v>
+      </c>
+      <c r="J77">
+        <v>3686400</v>
+      </c>
+      <c r="K77">
+        <v>2073600</v>
+      </c>
+      <c r="L77">
+        <v>921600</v>
+      </c>
     </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>122</v>
       </c>
@@ -46890,8 +48014,20 @@
         <f t="shared" si="9"/>
         <v>307200</v>
       </c>
+      <c r="I78">
+        <v>8294400</v>
+      </c>
+      <c r="J78">
+        <v>3686400</v>
+      </c>
+      <c r="K78">
+        <v>2073600</v>
+      </c>
+      <c r="L78">
+        <v>921600</v>
+      </c>
     </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>121</v>
       </c>
@@ -46905,8 +48041,20 @@
         <f t="shared" si="9"/>
         <v>307200</v>
       </c>
+      <c r="I79">
+        <v>8294400</v>
+      </c>
+      <c r="J79">
+        <v>3686400</v>
+      </c>
+      <c r="K79">
+        <v>2073600</v>
+      </c>
+      <c r="L79">
+        <v>921600</v>
+      </c>
     </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>115</v>
       </c>
@@ -46920,8 +48068,20 @@
         <f t="shared" si="9"/>
         <v>363520</v>
       </c>
+      <c r="I80">
+        <v>8294400</v>
+      </c>
+      <c r="J80">
+        <v>3686400</v>
+      </c>
+      <c r="K80">
+        <v>2073600</v>
+      </c>
+      <c r="L80">
+        <v>921600</v>
+      </c>
     </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>113</v>
       </c>
@@ -46935,8 +48095,20 @@
         <f t="shared" si="9"/>
         <v>363520</v>
       </c>
+      <c r="I81">
+        <v>8294400</v>
+      </c>
+      <c r="J81">
+        <v>3686400</v>
+      </c>
+      <c r="K81">
+        <v>2073600</v>
+      </c>
+      <c r="L81">
+        <v>921600</v>
+      </c>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>108</v>
       </c>
@@ -46950,8 +48122,20 @@
         <f t="shared" si="9"/>
         <v>1036800</v>
       </c>
+      <c r="I82">
+        <v>8294400</v>
+      </c>
+      <c r="J82">
+        <v>3686400</v>
+      </c>
+      <c r="K82">
+        <v>2073600</v>
+      </c>
+      <c r="L82">
+        <v>921600</v>
+      </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>107</v>
       </c>
@@ -46965,8 +48149,20 @@
         <f t="shared" si="9"/>
         <v>1036800</v>
       </c>
+      <c r="I83">
+        <v>8294400</v>
+      </c>
+      <c r="J83">
+        <v>3686400</v>
+      </c>
+      <c r="K83">
+        <v>2073600</v>
+      </c>
+      <c r="L83">
+        <v>921600</v>
+      </c>
     </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>106</v>
       </c>
@@ -46979,6 +48175,18 @@
       <c r="G84">
         <f t="shared" si="9"/>
         <v>1036800</v>
+      </c>
+      <c r="I84">
+        <v>8294400</v>
+      </c>
+      <c r="J84">
+        <v>3686400</v>
+      </c>
+      <c r="K84">
+        <v>2073600</v>
+      </c>
+      <c r="L84">
+        <v>921600</v>
       </c>
     </row>
   </sheetData>
@@ -47003,27 +48211,27 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24:P24"/>
+    <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="AC65" sqref="AC65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
@@ -48454,20 +49662,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
@@ -49562,18 +50770,18 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
@@ -49581,14 +50789,14 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F9" s="6">
         <f>E16/E11</f>
         <v>1.9941520467836256</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J9" s="6">
         <f>I16/I11</f>
@@ -50446,7 +51654,7 @@
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F66" s="6">
         <f>E69/E67</f>
@@ -50454,7 +51662,7 @@
       </c>
       <c r="G66" s="4"/>
       <c r="I66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J66" s="6">
         <f>I69/I67</f>
@@ -50538,13 +51746,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:16" x14ac:dyDescent="0.25">
